--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,47 @@
       </rPr>
       <t>建筑升级表</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:10001</t>
+  </si>
+  <si>
+    <t>2:10002</t>
+  </si>
+  <si>
+    <t>2:10003</t>
+  </si>
+  <si>
+    <t>PRODUCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +659,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -755,13 +796,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1407,6 +1448,106 @@
         <v>26214400</v>
       </c>
     </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>102</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="5">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>103</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>104</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="5">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>105</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="5">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5">
+        <v>101</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,29 @@
   </si>
   <si>
     <t>建筑表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockParms1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockParms2</t>
+  </si>
+  <si>
+    <t>解锁参数2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,13 +653,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -648,11 +671,14 @@
     <col min="5" max="5" width="16.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.109375" style="2" customWidth="1"/>
-    <col min="8" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="20" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,8 +709,17 @@
       <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -715,8 +750,17 @@
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,8 +791,17 @@
       <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -769,7 +822,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -790,7 +843,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -811,7 +864,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -832,7 +885,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -853,7 +906,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -874,7 +927,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -895,7 +948,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -916,7 +969,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -937,7 +990,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -958,7 +1011,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -979,7 +1032,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -1000,7 +1053,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>13</v>
       </c>

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,127 @@
   <si>
     <t>解锁参数2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10|2:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10|2:101</t>
+  </si>
+  <si>
+    <t>1:10|2:102</t>
+  </si>
+  <si>
+    <t>1:10|2:103</t>
+  </si>
+  <si>
+    <t>1:10|2:104</t>
+  </si>
+  <si>
+    <t>1:10|2:105</t>
+  </si>
+  <si>
+    <t>1:10|2:106</t>
+  </si>
+  <si>
+    <t>1:10|2:107</t>
+  </si>
+  <si>
+    <t>1:10|2:108</t>
+  </si>
+  <si>
+    <t>1:10|2:109</t>
+  </si>
+  <si>
+    <t>1:10|2:110</t>
+  </si>
+  <si>
+    <t>1:10|2:111</t>
+  </si>
+  <si>
+    <t>1:10|2:112</t>
+  </si>
+  <si>
+    <t>1:10|2:113</t>
+  </si>
+  <si>
+    <t>1:10|2:114</t>
+  </si>
+  <si>
+    <t>1:10|2:115</t>
+  </si>
+  <si>
+    <t>1:10|2:116</t>
+  </si>
+  <si>
+    <t>1:10|2:117</t>
+  </si>
+  <si>
+    <t>1:10|2:118</t>
+  </si>
+  <si>
+    <t>1:10|2:119</t>
+  </si>
+  <si>
+    <t>1:10|2:120</t>
+  </si>
+  <si>
+    <t>1:10|2:121</t>
+  </si>
+  <si>
+    <t>1:10|2:122</t>
+  </si>
+  <si>
+    <t>1:10|2:123</t>
+  </si>
+  <si>
+    <t>1:10|2:124</t>
+  </si>
+  <si>
+    <t>1:10|2:125</t>
+  </si>
+  <si>
+    <t>1:10|2:126</t>
+  </si>
+  <si>
+    <t>1:10|2:127</t>
+  </si>
+  <si>
+    <t>1:10|2:128</t>
+  </si>
+  <si>
+    <t>1:10|2:129</t>
+  </si>
+  <si>
+    <t>1:10|2:130</t>
+  </si>
+  <si>
+    <t>1:10|2:131</t>
+  </si>
+  <si>
+    <t>1:10|2:132</t>
+  </si>
+  <si>
+    <t>1:10|2:133</t>
+  </si>
+  <si>
+    <t>1:10|2:134</t>
+  </si>
+  <si>
+    <t>1:10|2:135</t>
+  </si>
+  <si>
+    <t>1:10|2:136</t>
+  </si>
+  <si>
+    <t>1:10|2:137</t>
+  </si>
+  <si>
+    <t>1:10|2:138</t>
+  </si>
+  <si>
+    <t>1:10|2:139</t>
   </si>
 </sst>
 </file>
@@ -622,16 +743,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -656,29 +777,29 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="2" customWidth="1"/>
     <col min="8" max="9" width="20" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -719,7 +840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -760,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -801,7 +922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -819,10 +940,14 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -840,10 +965,14 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -861,10 +990,14 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -882,10 +1015,14 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -903,10 +1040,14 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -924,10 +1065,14 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -945,10 +1090,14 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -966,10 +1115,14 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -987,10 +1140,14 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -1008,10 +1165,14 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -1029,10 +1190,14 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -1050,10 +1215,14 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -1071,10 +1240,14 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -1092,10 +1265,14 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -1113,10 +1290,14 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -1134,10 +1315,14 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -1155,10 +1340,14 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -1176,10 +1365,14 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -1197,10 +1390,14 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -1218,10 +1415,14 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -1239,10 +1440,14 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -1260,10 +1465,14 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>23</v>
       </c>
@@ -1281,10 +1490,14 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>24</v>
       </c>
@@ -1302,10 +1515,14 @@
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>25</v>
       </c>
@@ -1323,10 +1540,14 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>26</v>
       </c>
@@ -1344,10 +1565,14 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>27</v>
       </c>
@@ -1365,10 +1590,14 @@
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>28</v>
       </c>
@@ -1386,10 +1615,14 @@
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>29</v>
       </c>
@@ -1407,10 +1640,14 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>30</v>
       </c>
@@ -1428,10 +1665,14 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>31</v>
       </c>
@@ -1449,10 +1690,14 @@
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>32</v>
       </c>
@@ -1470,10 +1715,14 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>33</v>
       </c>
@@ -1491,10 +1740,14 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>34</v>
       </c>
@@ -1512,10 +1765,14 @@
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>35</v>
       </c>
@@ -1533,10 +1790,14 @@
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>36</v>
       </c>
@@ -1554,10 +1815,14 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>37</v>
       </c>
@@ -1575,10 +1840,14 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>38</v>
       </c>
@@ -1596,10 +1865,14 @@
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>39</v>
       </c>
@@ -1617,10 +1890,14 @@
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>40</v>
       </c>
@@ -1638,8 +1915,12 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="I43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="-60" windowWidth="10905" windowHeight="9150" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="216">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product_wheat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁匠铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +374,6 @@
     <t>升级获得【农夫】205人</t>
   </si>
   <si>
-    <t>21：360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22:1080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,6 +731,42 @@
   <si>
     <t>当建筑升级成功，即生产项对应新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildSuccessMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_material_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_material_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_material_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_material_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_material_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_population</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -864,7 +892,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -906,7 +934,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,7 +969,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1190,10 +1218,10 @@
   <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1208,9 +1236,10 @@
     <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="13.25" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="27.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="7"/>
+    <col min="13" max="13" width="12.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="53.125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="25.125" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -1254,7 +1283,10 @@
         <v>34</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1298,6 +1330,9 @@
         <v>6</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1336,13 +1371,16 @@
         <v>32</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1376,7 +1414,7 @@
         <v>35</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1393,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="7">
@@ -1407,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1424,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1441,16 +1479,16 @@
         <v>35</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1467,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1482,16 +1520,16 @@
         <v>3</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7">
         <v>1</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1499,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -1508,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -1525,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7">
         <v>2</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1542,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -1551,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
@@ -1561,7 +1599,7 @@
         <v>1500</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="K9" s="7">
         <v>2</v>
@@ -1570,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.35">
@@ -1578,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1587,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
@@ -1597,7 +1635,7 @@
         <v>9000</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7">
         <v>2</v>
@@ -1606,10 +1644,10 @@
         <v>6</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
@@ -1617,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -1626,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -1636,7 +1674,7 @@
         <v>22500</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7">
         <v>2</v>
@@ -1645,10 +1683,10 @@
         <v>7</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1656,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -1665,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="G12" s="2">
         <v>7</v>
@@ -1675,7 +1713,7 @@
         <v>37500</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K12" s="7">
         <v>2</v>
@@ -1684,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1692,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -1701,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1716,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1724,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -1733,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="G14" s="2">
         <v>8</v>
@@ -1750,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -1758,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -1767,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2">
         <v>9</v>
@@ -1777,7 +1815,7 @@
         <v>2250</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7">
         <v>2</v>
@@ -1786,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1794,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -1803,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2">
         <v>10</v>
@@ -1813,7 +1851,7 @@
         <v>22500</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7">
         <v>2</v>
@@ -1822,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
@@ -1830,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -1839,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2">
         <v>11</v>
@@ -1849,7 +1887,7 @@
         <v>37500</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7">
         <v>2</v>
@@ -1858,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
@@ -1866,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -1875,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2">
         <v>12</v>
@@ -1885,7 +1923,7 @@
         <v>45000</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7">
         <v>2</v>
@@ -1894,7 +1932,7 @@
         <v>14</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -1902,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -1911,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1926,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -1934,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
@@ -1943,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="G20" s="2">
         <v>13</v>
@@ -1953,7 +1991,7 @@
         <v>150</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7">
         <v>2</v>
@@ -1962,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -1970,7 +2008,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
@@ -1979,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2">
         <v>14</v>
@@ -1989,7 +2027,7 @@
         <v>3000</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7">
         <v>2</v>
@@ -1998,7 +2036,7 @@
         <v>17</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -2006,7 +2044,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -2015,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2">
         <v>15</v>
@@ -2025,7 +2063,7 @@
         <v>22500</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7">
         <v>2</v>
@@ -2034,7 +2072,7 @@
         <v>18</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
@@ -2042,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -2051,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="2">
         <v>16</v>
@@ -2061,7 +2099,7 @@
         <v>37500</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7">
         <v>2</v>
@@ -2070,7 +2108,7 @@
         <v>19</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -2078,7 +2116,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -2087,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2">
         <v>17</v>
@@ -2097,7 +2135,7 @@
         <v>45000</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7">
         <v>2</v>
@@ -2106,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -2114,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -2123,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2138,7 +2176,7 @@
         <v>21</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -2146,7 +2184,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
@@ -2155,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="G26" s="2">
         <v>18</v>
@@ -2165,7 +2203,7 @@
         <v>150</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7">
         <v>2</v>
@@ -2174,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
@@ -2182,7 +2220,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2">
         <v>6</v>
@@ -2191,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2">
         <v>19</v>
@@ -2201,7 +2239,7 @@
         <v>3000</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K27" s="7">
         <v>2</v>
@@ -2210,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -2218,7 +2256,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2">
         <v>6</v>
@@ -2227,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2">
         <v>20</v>
@@ -2237,7 +2275,7 @@
         <v>16500</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7">
         <v>2</v>
@@ -2246,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
@@ -2254,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2">
         <v>6</v>
@@ -2263,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" s="2">
         <v>21</v>
@@ -2273,7 +2311,7 @@
         <v>31500</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7">
         <v>2</v>
@@ -2282,7 +2320,7 @@
         <v>25</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -2290,7 +2328,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2">
         <v>6</v>
@@ -2299,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2">
         <v>22</v>
@@ -2309,7 +2347,7 @@
         <v>39000</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K30" s="7">
         <v>2</v>
@@ -2318,7 +2356,7 @@
         <v>26</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
@@ -2326,7 +2364,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2">
         <v>6</v>
@@ -2335,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2350,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -2358,7 +2396,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2">
         <v>7</v>
@@ -2367,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="G32" s="2">
         <v>23</v>
@@ -2381,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
@@ -2389,7 +2427,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2">
         <v>7</v>
@@ -2398,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="2">
         <v>24</v>
@@ -2408,7 +2446,7 @@
         <v>1500</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K33" s="7">
         <v>2</v>
@@ -2417,7 +2455,7 @@
         <v>29</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
@@ -2425,7 +2463,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2">
         <v>7</v>
@@ -2434,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2">
         <v>25</v>
@@ -2444,7 +2482,7 @@
         <v>9000</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K34" s="7">
         <v>2</v>
@@ -2453,7 +2491,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
@@ -2461,7 +2499,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2">
         <v>7</v>
@@ -2470,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2">
         <v>26</v>
@@ -2480,7 +2518,7 @@
         <v>16500</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K35" s="7">
         <v>2</v>
@@ -2489,7 +2527,7 @@
         <v>31</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
@@ -2497,7 +2535,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2">
         <v>7</v>
@@ -2506,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="2">
         <v>27</v>
@@ -2516,7 +2554,7 @@
         <v>27000</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K36" s="7">
         <v>2</v>
@@ -2525,7 +2563,7 @@
         <v>32</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
@@ -2533,7 +2571,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>7</v>
@@ -2542,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2557,7 +2595,7 @@
         <v>33</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
@@ -2574,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="G38" s="2">
         <v>10</v>
@@ -2584,7 +2622,7 @@
         <v>100</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K38" s="7">
         <v>2</v>
@@ -2593,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
@@ -2620,7 +2658,7 @@
         <v>800</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K39" s="7">
         <v>2</v>
@@ -2629,7 +2667,7 @@
         <v>35</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
@@ -2656,7 +2694,7 @@
         <v>1600</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K40" s="7">
         <v>2</v>
@@ -2665,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
@@ -2692,7 +2730,7 @@
         <v>2400</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K41" s="7">
         <v>2</v>
@@ -2701,7 +2739,7 @@
         <v>37</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
@@ -2728,7 +2766,7 @@
         <v>3200</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K42" s="7">
         <v>2</v>
@@ -2737,7 +2775,7 @@
         <v>38</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
@@ -2764,7 +2802,7 @@
         <v>5900</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K43" s="7">
         <v>2</v>
@@ -2773,7 +2811,7 @@
         <v>39</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
@@ -2800,7 +2838,7 @@
         <v>7100</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K44" s="7">
         <v>2</v>
@@ -2809,7 +2847,7 @@
         <v>40</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
@@ -2836,7 +2874,7 @@
         <v>8200</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K45" s="7">
         <v>2</v>
@@ -2845,7 +2883,7 @@
         <v>41</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
@@ -2872,7 +2910,7 @@
         <v>9400</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K46" s="7">
         <v>2</v>
@@ -2881,7 +2919,7 @@
         <v>42</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
@@ -2908,7 +2946,7 @@
         <v>10500</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K47" s="7">
         <v>2</v>
@@ -2917,7 +2955,7 @@
         <v>43</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
@@ -2944,7 +2982,7 @@
         <v>11700</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K48" s="7">
         <v>2</v>
@@ -2953,7 +2991,7 @@
         <v>44</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
@@ -2980,7 +3018,7 @@
         <v>12900</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K49" s="7">
         <v>2</v>
@@ -2989,7 +3027,7 @@
         <v>45</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
@@ -3016,7 +3054,7 @@
         <v>14000</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K50" s="7">
         <v>2</v>
@@ -3025,7 +3063,7 @@
         <v>46</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
@@ -3052,7 +3090,7 @@
         <v>15200</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K51" s="7">
         <v>2</v>
@@ -3061,7 +3099,7 @@
         <v>47</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
@@ -3087,7 +3125,7 @@
         <v>21800</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K52" s="7">
         <v>2</v>
@@ -3096,7 +3134,7 @@
         <v>48</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
@@ -3122,7 +3160,7 @@
         <v>23400</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K53" s="7">
         <v>2</v>
@@ -3131,7 +3169,7 @@
         <v>49</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
@@ -3157,7 +3195,7 @@
         <v>24900</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K54" s="7">
         <v>2</v>
@@ -3166,7 +3204,7 @@
         <v>50</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
@@ -3192,7 +3230,7 @@
         <v>26400</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K55" s="7">
         <v>2</v>
@@ -3201,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
@@ -3227,7 +3265,7 @@
         <v>28000</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K56" s="7">
         <v>2</v>
@@ -3236,7 +3274,7 @@
         <v>52</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
@@ -3262,7 +3300,7 @@
         <v>29500</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K57" s="7">
         <v>2</v>
@@ -3271,7 +3309,7 @@
         <v>53</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
@@ -3297,7 +3335,7 @@
         <v>31100</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K58" s="7">
         <v>2</v>
@@ -3306,7 +3344,7 @@
         <v>54</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
@@ -3332,7 +3370,7 @@
         <v>32600</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K59" s="7">
         <v>2</v>
@@ -3341,7 +3379,7 @@
         <v>55</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
@@ -3367,7 +3405,7 @@
         <v>34200</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K60" s="7">
         <v>2</v>
@@ -3376,7 +3414,7 @@
         <v>56</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
@@ -3402,7 +3440,7 @@
         <v>35700</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K61" s="7">
         <v>2</v>
@@ -3411,7 +3449,7 @@
         <v>57</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
@@ -3437,7 +3475,7 @@
         <v>37200</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K62" s="7">
         <v>2</v>
@@ -3446,7 +3484,7 @@
         <v>58</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
@@ -3472,7 +3510,7 @@
         <v>38800</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K63" s="7">
         <v>2</v>
@@ -3481,7 +3519,7 @@
         <v>59</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
@@ -3507,7 +3545,7 @@
         <v>40300</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K64" s="7">
         <v>2</v>
@@ -3516,7 +3554,7 @@
         <v>60</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
@@ -3542,7 +3580,7 @@
         <v>41900</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K65" s="7">
         <v>2</v>
@@ -3551,7 +3589,7 @@
         <v>61</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
@@ -3577,7 +3615,7 @@
         <v>43400</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K66" s="7">
         <v>2</v>
@@ -3586,7 +3624,7 @@
         <v>62</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
@@ -3612,7 +3650,7 @@
         <v>56200</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K67" s="7">
         <v>2</v>
@@ -3621,7 +3659,7 @@
         <v>63</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
@@ -3647,7 +3685,7 @@
         <v>58200</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K68" s="7">
         <v>2</v>
@@ -3656,7 +3694,7 @@
         <v>64</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
@@ -3682,7 +3720,7 @@
         <v>60100</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K69" s="7">
         <v>2</v>
@@ -3691,7 +3729,7 @@
         <v>65</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
@@ -3717,7 +3755,7 @@
         <v>62100</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K70" s="7">
         <v>2</v>
@@ -3726,7 +3764,7 @@
         <v>66</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
@@ -3752,7 +3790,7 @@
         <v>63900</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K71" s="7">
         <v>2</v>
@@ -3761,7 +3799,7 @@
         <v>67</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
@@ -3787,7 +3825,7 @@
         <v>65900</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K72" s="7">
         <v>2</v>
@@ -3796,7 +3834,7 @@
         <v>68</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
@@ -3822,7 +3860,7 @@
         <v>67800</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K73" s="7">
         <v>2</v>
@@ -3831,7 +3869,7 @@
         <v>69</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
@@ -3857,7 +3895,7 @@
         <v>69800</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K74" s="7">
         <v>2</v>
@@ -3866,7 +3904,7 @@
         <v>70</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
@@ -3892,7 +3930,7 @@
         <v>71700</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K75" s="7">
         <v>2</v>
@@ -3901,7 +3939,7 @@
         <v>71</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
@@ -3927,7 +3965,7 @@
         <v>73700</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K76" s="7">
         <v>2</v>
@@ -3936,7 +3974,7 @@
         <v>72</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.3">
@@ -3962,7 +4000,7 @@
         <v>75600</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K77" s="7">
         <v>2</v>
@@ -3971,7 +4009,7 @@
         <v>73</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="2:14" ht="18" x14ac:dyDescent="0.35">
@@ -3988,7 +4026,7 @@
         <v>40</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G78" s="7">
         <v>-1</v>
@@ -4003,7 +4041,7 @@
         <v>74</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
@@ -4011,16 +4049,16 @@
         <v>76</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D79" s="7">
         <v>9</v>
       </c>
       <c r="E79" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
@@ -4029,13 +4067,13 @@
         <v>4500</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K79" s="7">
         <v>1</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.3">
@@ -4043,16 +4081,16 @@
         <v>77</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80" s="7">
         <v>9</v>
       </c>
       <c r="E80" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G80" s="7">
         <v>2</v>
@@ -4061,7 +4099,7 @@
         <v>12500</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K80" s="7">
         <v>2</v>
@@ -4070,7 +4108,7 @@
         <v>76</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
@@ -4078,16 +4116,16 @@
         <v>78</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D81" s="7">
         <v>9</v>
       </c>
       <c r="E81" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G81" s="7">
         <v>3</v>
@@ -4096,7 +4134,7 @@
         <v>25000</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K81" s="7">
         <v>2</v>
@@ -4105,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
@@ -4113,16 +4151,16 @@
         <v>79</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" s="7">
         <v>9</v>
       </c>
       <c r="E82" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G82" s="7">
         <v>4</v>
@@ -4131,7 +4169,7 @@
         <v>30000</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K82" s="7">
         <v>2</v>
@@ -4140,7 +4178,7 @@
         <v>78</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
@@ -4148,16 +4186,16 @@
         <v>80</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D83" s="7">
         <v>9</v>
       </c>
       <c r="E83" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G83" s="7">
         <v>5</v>
@@ -4172,12 +4210,12 @@
         <v>79</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1239,9 @@
     <col min="13" max="13" width="12.125" style="7" customWidth="1"/>
     <col min="14" max="14" width="53.125" style="7" customWidth="1"/>
     <col min="15" max="15" width="25.125" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="7"/>
+    <col min="16" max="18" width="9" style="7"/>
+    <col min="19" max="19" width="27.25" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="217">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,6 +767,10 @@
   <si>
     <t>add_population</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_companion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1218,10 +1222,10 @@
   <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1441,10 +1445,10 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>59</v>
@@ -4060,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -11,14 +11,14 @@
     <sheet name="BuildingConfig" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BuildingConfig!$A$1:$P$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BuildingConfig!$A$1:$Q$75</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="190">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,6 +702,30 @@
   <si>
     <t>CostItemCounts</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jz_baozipu</t>
+  </si>
+  <si>
+    <t>jz_kuodi</t>
+  </si>
+  <si>
+    <t>jz_minsu</t>
+  </si>
+  <si>
+    <t>jz_mucaifang</t>
   </si>
 </sst>
 </file>
@@ -1176,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1190,23 +1214,24 @@
     <col min="1" max="2" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="42.88671875" style="4" customWidth="1"/>
-    <col min="16" max="17" width="31.21875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="4"/>
+    <col min="5" max="5" width="20" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="42.88671875" style="4" customWidth="1"/>
+    <col min="17" max="18" width="31.21875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1220,43 +1245,46 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1270,10 +1298,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -1282,19 +1310,19 @@
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>6</v>
@@ -1305,8 +1333,11 @@
       <c r="P2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="Q2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1320,43 +1351,46 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1366,35 +1400,38 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>20</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1404,44 +1441,47 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>10</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="4">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4">
         <v>3</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>195</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1451,45 +1491,48 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5">
+      <c r="I6" s="3"/>
+      <c r="J6" s="5">
         <v>120</v>
       </c>
-      <c r="J6" s="14">
+      <c r="K6" s="14">
         <v>22</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>3</v>
       </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
       <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
         <v>68</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1499,48 +1542,51 @@
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>4</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="9">
+      <c r="I7" s="3"/>
+      <c r="J7" s="9">
         <v>2400</v>
       </c>
-      <c r="J7" s="14">
+      <c r="K7" s="14">
         <v>22</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>60</v>
       </c>
-      <c r="L7" s="10">
-        <v>2</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
+        <v>2</v>
+      </c>
+      <c r="N7" s="11">
         <v>3</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="4">
-        <v>2</v>
-      </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="4">
+        <v>2</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1550,48 +1596,51 @@
       <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="9">
+      <c r="I8" s="3"/>
+      <c r="J8" s="9">
         <v>16200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>90</v>
       </c>
-      <c r="L8" s="10">
-        <v>2</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11">
         <v>4</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>3</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1601,42 +1650,45 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9">
+      <c r="I9" s="3"/>
+      <c r="J9" s="9">
         <v>72000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="10">
-        <v>2</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
+        <v>2</v>
+      </c>
+      <c r="N9" s="11">
         <v>5</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1646,42 +1698,45 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9">
+      <c r="H10" s="3">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9">
         <v>222400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>460</v>
       </c>
-      <c r="L10" s="10">
-        <v>2</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="11">
         <v>6</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="T10" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -1691,39 +1746,42 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="3">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="9">
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="9">
         <v>120</v>
       </c>
-      <c r="J11" s="14">
+      <c r="K11" s="14">
         <v>22</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>3</v>
       </c>
-      <c r="L11" s="4">
-        <v>2</v>
-      </c>
       <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
         <v>68</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -1733,48 +1791,51 @@
       <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5">
+      <c r="I12" s="3"/>
+      <c r="J12" s="5">
         <v>2400</v>
       </c>
-      <c r="J12" s="14">
+      <c r="K12" s="14">
         <v>22</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60</v>
       </c>
-      <c r="L12" s="10">
-        <v>2</v>
-      </c>
-      <c r="M12" s="11">
-        <v>8</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="M12" s="10">
+        <v>2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>8</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -1784,48 +1845,51 @@
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>10</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5">
+      <c r="I13" s="3"/>
+      <c r="J13" s="5">
         <v>16200</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>23</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>90</v>
       </c>
-      <c r="L13" s="10">
-        <v>2</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
+        <v>2</v>
+      </c>
+      <c r="N13" s="11">
         <v>9</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -1835,48 +1899,51 @@
       <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5">
+      <c r="I14" s="3"/>
+      <c r="J14" s="5">
         <v>72000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="10">
-        <v>2</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
+        <v>2</v>
+      </c>
+      <c r="N14" s="11">
         <v>10</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>12</v>
       </c>
@@ -1886,48 +1953,51 @@
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="5">
+      <c r="I15" s="3"/>
+      <c r="J15" s="5">
         <v>222400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>460</v>
       </c>
-      <c r="L15" s="10">
-        <v>2</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
+        <v>2</v>
+      </c>
+      <c r="N15" s="11">
         <v>11</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -1937,39 +2007,42 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>13</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="5">
+      <c r="I16" s="3"/>
+      <c r="J16" s="5">
         <v>1200</v>
       </c>
-      <c r="J16" s="3">
-        <v>7</v>
-      </c>
       <c r="K16" s="3">
+        <v>7</v>
+      </c>
+      <c r="L16" s="3">
         <v>30</v>
       </c>
-      <c r="L16" s="4">
-        <v>2</v>
-      </c>
       <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
         <v>18</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -1979,39 +2052,42 @@
       <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="5">
+      <c r="I17" s="3"/>
+      <c r="J17" s="5">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
-        <v>7</v>
-      </c>
       <c r="K17" s="3">
+        <v>7</v>
+      </c>
+      <c r="L17" s="3">
         <v>90</v>
       </c>
-      <c r="L17" s="10">
-        <v>2</v>
-      </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
+        <v>2</v>
+      </c>
+      <c r="N17" s="11">
         <v>13</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -2021,39 +2097,42 @@
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="5">
+      <c r="I18" s="3"/>
+      <c r="J18" s="5">
         <v>64800</v>
       </c>
-      <c r="J18" s="3">
-        <v>8</v>
-      </c>
       <c r="K18" s="3">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>360</v>
       </c>
-      <c r="L18" s="10">
-        <v>2</v>
-      </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
+        <v>2</v>
+      </c>
+      <c r="N18" s="11">
         <v>14</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -2063,39 +2142,42 @@
       <c r="D19" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>16</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5">
+      <c r="I19" s="3"/>
+      <c r="J19" s="5">
         <v>108000</v>
       </c>
-      <c r="J19" s="4">
-        <v>8</v>
-      </c>
       <c r="K19" s="4">
+        <v>8</v>
+      </c>
+      <c r="L19" s="4">
         <v>600</v>
       </c>
-      <c r="L19" s="10">
-        <v>2</v>
-      </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
+        <v>2</v>
+      </c>
+      <c r="N19" s="11">
         <v>15</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -2105,39 +2187,42 @@
       <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="5">
+      <c r="I20" s="3"/>
+      <c r="J20" s="5">
         <v>259200</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>9</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>405</v>
       </c>
-      <c r="L20" s="10">
-        <v>2</v>
-      </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
+        <v>2</v>
+      </c>
+      <c r="N20" s="11">
         <v>16</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -2147,39 +2232,42 @@
       <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5">
+      <c r="I21" s="3"/>
+      <c r="J21" s="5">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
-        <v>7</v>
-      </c>
       <c r="K21" s="3">
+        <v>7</v>
+      </c>
+      <c r="L21" s="3">
         <v>30</v>
       </c>
-      <c r="L21" s="4">
-        <v>2</v>
-      </c>
       <c r="M21" s="4">
-        <v>8</v>
-      </c>
-      <c r="O21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>8</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" s="3">
         <v>19</v>
       </c>
@@ -2189,39 +2277,42 @@
       <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="5">
+      <c r="I22" s="3"/>
+      <c r="J22" s="5">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
-        <v>7</v>
-      </c>
       <c r="K22" s="3">
+        <v>7</v>
+      </c>
+      <c r="L22" s="3">
         <v>90</v>
       </c>
-      <c r="L22" s="10">
-        <v>2</v>
-      </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
+        <v>2</v>
+      </c>
+      <c r="N22" s="11">
         <v>18</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>20</v>
       </c>
@@ -2231,39 +2322,42 @@
       <c r="D23" s="3">
         <v>6</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="5">
+      <c r="I23" s="3"/>
+      <c r="J23" s="5">
         <v>64800</v>
       </c>
-      <c r="J23" s="3">
-        <v>8</v>
-      </c>
       <c r="K23" s="3">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>360</v>
       </c>
-      <c r="L23" s="10">
-        <v>2</v>
-      </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
+        <v>2</v>
+      </c>
+      <c r="N23" s="11">
         <v>19</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
         <v>21</v>
       </c>
@@ -2273,39 +2367,42 @@
       <c r="D24" s="3">
         <v>6</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="5">
+      <c r="I24" s="3"/>
+      <c r="J24" s="5">
         <v>108000</v>
       </c>
-      <c r="J24" s="4">
-        <v>8</v>
-      </c>
       <c r="K24" s="4">
+        <v>8</v>
+      </c>
+      <c r="L24" s="4">
         <v>600</v>
       </c>
-      <c r="L24" s="10">
-        <v>2</v>
-      </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
+        <v>2</v>
+      </c>
+      <c r="N24" s="11">
         <v>20</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
         <v>22</v>
       </c>
@@ -2315,39 +2412,42 @@
       <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>22</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="5">
+      <c r="I25" s="3"/>
+      <c r="J25" s="5">
         <v>259200</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>9</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>405</v>
       </c>
-      <c r="L25" s="10">
-        <v>2</v>
-      </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
+        <v>2</v>
+      </c>
+      <c r="N25" s="11">
         <v>21</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
         <v>23</v>
       </c>
@@ -2357,35 +2457,38 @@
       <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5">
+      <c r="I26" s="3"/>
+      <c r="J26" s="5">
         <v>60</v>
       </c>
-      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="4">
-        <v>2</v>
-      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4">
         <v>68</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>24</v>
       </c>
@@ -2395,35 +2498,38 @@
       <c r="D27" s="3">
         <v>7</v>
       </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="5">
+      <c r="I27" s="3"/>
+      <c r="J27" s="5">
         <v>2500</v>
       </c>
-      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="10">
-        <v>2</v>
-      </c>
-      <c r="M27" s="11">
+      <c r="L27" s="7"/>
+      <c r="M27" s="10">
+        <v>2</v>
+      </c>
+      <c r="N27" s="11">
         <v>23</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>25</v>
       </c>
@@ -2433,35 +2539,38 @@
       <c r="D28" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>25</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="5">
+      <c r="I28" s="3"/>
+      <c r="J28" s="5">
         <v>16500</v>
       </c>
-      <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="10">
-        <v>2</v>
-      </c>
-      <c r="M28" s="11">
+      <c r="L28" s="7"/>
+      <c r="M28" s="10">
+        <v>2</v>
+      </c>
+      <c r="N28" s="11">
         <v>24</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <v>26</v>
       </c>
@@ -2471,35 +2580,38 @@
       <c r="D29" s="3">
         <v>7</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>26</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="5">
+      <c r="I29" s="3"/>
+      <c r="J29" s="5">
         <v>70500</v>
       </c>
-      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="10">
-        <v>2</v>
-      </c>
-      <c r="M29" s="11">
+      <c r="L29" s="7"/>
+      <c r="M29" s="10">
+        <v>2</v>
+      </c>
+      <c r="N29" s="11">
         <v>25</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
         <v>27</v>
       </c>
@@ -2509,35 +2621,38 @@
       <c r="D30" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="3">
         <v>5</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>27</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="5">
+      <c r="I30" s="3"/>
+      <c r="J30" s="5">
         <v>223400</v>
       </c>
-      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="10">
-        <v>2</v>
-      </c>
-      <c r="M30" s="11">
+      <c r="L30" s="7"/>
+      <c r="M30" s="10">
+        <v>2</v>
+      </c>
+      <c r="N30" s="11">
         <v>26</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>28</v>
       </c>
@@ -2547,36 +2662,39 @@
       <c r="D31" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="13">
         <v>1</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>10</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="5">
+      <c r="I31" s="3"/>
+      <c r="J31" s="5">
         <v>50</v>
       </c>
-      <c r="J31" s="5">
-        <v>7</v>
-      </c>
       <c r="K31" s="5">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4">
+        <v>7</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2</v>
+      </c>
+      <c r="M31" s="4">
         <v>1</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>29</v>
       </c>
@@ -2586,39 +2704,42 @@
       <c r="D32" s="4">
         <v>8</v>
       </c>
-      <c r="E32" s="13">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="5">
+      <c r="I32" s="3"/>
+      <c r="J32" s="5">
         <v>210</v>
       </c>
-      <c r="J32" s="5">
-        <v>7</v>
-      </c>
       <c r="K32" s="5">
-        <v>8</v>
-      </c>
-      <c r="L32" s="10">
-        <v>2</v>
-      </c>
-      <c r="M32" s="5">
+        <v>7</v>
+      </c>
+      <c r="L32" s="5">
+        <v>8</v>
+      </c>
+      <c r="M32" s="10">
+        <v>2</v>
+      </c>
+      <c r="N32" s="5">
         <v>28</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>30</v>
       </c>
@@ -2628,39 +2749,42 @@
       <c r="D33" s="4">
         <v>8</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="13">
         <v>3</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="5">
+      <c r="I33" s="3"/>
+      <c r="J33" s="5">
         <v>490</v>
       </c>
-      <c r="J33" s="5">
-        <v>7</v>
-      </c>
       <c r="K33" s="5">
+        <v>7</v>
+      </c>
+      <c r="L33" s="5">
         <v>25</v>
       </c>
-      <c r="L33" s="10">
-        <v>2</v>
-      </c>
-      <c r="M33" s="5">
+      <c r="M33" s="10">
+        <v>2</v>
+      </c>
+      <c r="N33" s="5">
         <v>29</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>31</v>
       </c>
@@ -2670,39 +2794,42 @@
       <c r="D34" s="4">
         <v>8</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="13">
         <v>4</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <v>25</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="5">
+      <c r="I34" s="3"/>
+      <c r="J34" s="5">
         <v>870</v>
       </c>
-      <c r="J34" s="5">
-        <v>7</v>
-      </c>
       <c r="K34" s="5">
+        <v>7</v>
+      </c>
+      <c r="L34" s="5">
         <v>55</v>
       </c>
-      <c r="L34" s="10">
-        <v>2</v>
-      </c>
-      <c r="M34" s="5">
+      <c r="M34" s="10">
+        <v>2</v>
+      </c>
+      <c r="N34" s="5">
         <v>30</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" s="3">
         <v>32</v>
       </c>
@@ -2712,39 +2839,42 @@
       <c r="D35" s="4">
         <v>8</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="13">
         <v>5</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="5">
+      <c r="I35" s="3"/>
+      <c r="J35" s="5">
         <v>1360</v>
       </c>
-      <c r="J35" s="5">
-        <v>7</v>
-      </c>
       <c r="K35" s="5">
+        <v>7</v>
+      </c>
+      <c r="L35" s="5">
         <v>100</v>
       </c>
-      <c r="L35" s="10">
-        <v>2</v>
-      </c>
-      <c r="M35" s="5">
+      <c r="M35" s="10">
+        <v>2</v>
+      </c>
+      <c r="N35" s="5">
         <v>31</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" s="3">
         <v>33</v>
       </c>
@@ -2754,39 +2884,42 @@
       <c r="D36" s="4">
         <v>8</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="13">
         <v>6</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <v>35</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="5">
+      <c r="I36" s="3"/>
+      <c r="J36" s="5">
         <v>1960</v>
       </c>
-      <c r="J36" s="5">
-        <v>7</v>
-      </c>
       <c r="K36" s="5">
+        <v>7</v>
+      </c>
+      <c r="L36" s="5">
         <v>165</v>
       </c>
-      <c r="L36" s="10">
-        <v>2</v>
-      </c>
-      <c r="M36" s="5">
+      <c r="M36" s="10">
+        <v>2</v>
+      </c>
+      <c r="N36" s="5">
         <v>32</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" s="3">
         <v>34</v>
       </c>
@@ -2796,39 +2929,42 @@
       <c r="D37" s="4">
         <v>8</v>
       </c>
-      <c r="E37" s="13">
-        <v>7</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="13">
+        <v>7</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>40</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="5">
+      <c r="I37" s="3"/>
+      <c r="J37" s="5">
         <v>2670</v>
       </c>
-      <c r="J37" s="5">
-        <v>7</v>
-      </c>
       <c r="K37" s="5">
+        <v>7</v>
+      </c>
+      <c r="L37" s="5">
         <v>255</v>
       </c>
-      <c r="L37" s="10">
-        <v>2</v>
-      </c>
-      <c r="M37" s="5">
+      <c r="M37" s="10">
+        <v>2</v>
+      </c>
+      <c r="N37" s="5">
         <v>33</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" s="3">
         <v>35</v>
       </c>
@@ -2838,39 +2974,42 @@
       <c r="D38" s="4">
         <v>8</v>
       </c>
-      <c r="E38" s="13">
-        <v>8</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="13">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <v>45</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5">
+      <c r="I38" s="3"/>
+      <c r="J38" s="5">
         <v>3490</v>
       </c>
-      <c r="J38" s="5">
-        <v>7</v>
-      </c>
       <c r="K38" s="5">
+        <v>7</v>
+      </c>
+      <c r="L38" s="5">
         <v>375</v>
       </c>
-      <c r="L38" s="10">
-        <v>2</v>
-      </c>
-      <c r="M38" s="5">
+      <c r="M38" s="10">
+        <v>2</v>
+      </c>
+      <c r="N38" s="5">
         <v>34</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="3">
         <v>36</v>
       </c>
@@ -2880,39 +3019,42 @@
       <c r="D39" s="4">
         <v>8</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="13">
         <v>9</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>50</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="5">
+      <c r="I39" s="3"/>
+      <c r="J39" s="5">
         <v>4420</v>
       </c>
-      <c r="J39" s="5">
-        <v>7</v>
-      </c>
       <c r="K39" s="5">
+        <v>7</v>
+      </c>
+      <c r="L39" s="5">
         <v>455</v>
       </c>
-      <c r="L39" s="10">
-        <v>2</v>
-      </c>
-      <c r="M39" s="5">
+      <c r="M39" s="10">
+        <v>2</v>
+      </c>
+      <c r="N39" s="5">
         <v>35</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" s="3">
         <v>37</v>
       </c>
@@ -2922,39 +3064,42 @@
       <c r="D40" s="4">
         <v>8</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="13">
         <v>10</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <v>55</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="5">
+      <c r="I40" s="3"/>
+      <c r="J40" s="5">
         <v>8100</v>
       </c>
-      <c r="J40" s="5">
-        <v>7</v>
-      </c>
       <c r="K40" s="5">
+        <v>7</v>
+      </c>
+      <c r="L40" s="5">
         <v>540</v>
       </c>
-      <c r="L40" s="10">
-        <v>2</v>
-      </c>
-      <c r="M40" s="5">
+      <c r="M40" s="10">
+        <v>2</v>
+      </c>
+      <c r="N40" s="5">
         <v>36</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" s="3">
         <v>38</v>
       </c>
@@ -2964,39 +3109,42 @@
       <c r="D41" s="4">
         <v>8</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="13">
         <v>11</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="5">
+      <c r="I41" s="3"/>
+      <c r="J41" s="5">
         <v>9900</v>
       </c>
-      <c r="J41" s="5">
-        <v>7</v>
-      </c>
       <c r="K41" s="5">
+        <v>7</v>
+      </c>
+      <c r="L41" s="5">
         <v>710</v>
       </c>
-      <c r="L41" s="10">
-        <v>2</v>
-      </c>
-      <c r="M41" s="5">
+      <c r="M41" s="10">
+        <v>2</v>
+      </c>
+      <c r="N41" s="5">
         <v>37</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="P41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" s="3">
         <v>39</v>
       </c>
@@ -3006,39 +3154,42 @@
       <c r="D42" s="4">
         <v>8</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="13">
         <v>12</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="5">
+      <c r="I42" s="3"/>
+      <c r="J42" s="5">
         <v>11800</v>
       </c>
-      <c r="J42" s="5">
-        <v>7</v>
-      </c>
       <c r="K42" s="5">
+        <v>7</v>
+      </c>
+      <c r="L42" s="5">
         <v>910</v>
       </c>
-      <c r="L42" s="10">
-        <v>2</v>
-      </c>
-      <c r="M42" s="5">
+      <c r="M42" s="10">
+        <v>2</v>
+      </c>
+      <c r="N42" s="5">
         <v>38</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="Q42" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" s="3">
         <v>40</v>
       </c>
@@ -3048,39 +3199,42 @@
       <c r="D43" s="4">
         <v>8</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="13">
         <v>13</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>70</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="5">
+      <c r="I43" s="3"/>
+      <c r="J43" s="5">
         <v>13800</v>
       </c>
-      <c r="J43" s="5">
-        <v>7</v>
-      </c>
       <c r="K43" s="5">
+        <v>7</v>
+      </c>
+      <c r="L43" s="5">
         <v>1150</v>
       </c>
-      <c r="L43" s="10">
-        <v>2</v>
-      </c>
-      <c r="M43" s="5">
+      <c r="M43" s="10">
+        <v>2</v>
+      </c>
+      <c r="N43" s="5">
         <v>39</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="Q43" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="3">
         <v>41</v>
       </c>
@@ -3090,39 +3244,42 @@
       <c r="D44" s="4">
         <v>8</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="13">
         <v>14</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>75</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="6">
+      <c r="I44" s="3"/>
+      <c r="J44" s="6">
         <v>16000</v>
       </c>
-      <c r="J44" s="5">
-        <v>7</v>
-      </c>
       <c r="K44" s="5">
+        <v>7</v>
+      </c>
+      <c r="L44" s="5">
         <v>1430</v>
       </c>
-      <c r="L44" s="10">
-        <v>2</v>
-      </c>
-      <c r="M44" s="5">
+      <c r="M44" s="10">
+        <v>2</v>
+      </c>
+      <c r="N44" s="5">
         <v>40</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="P44" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" s="3">
         <v>42</v>
       </c>
@@ -3132,38 +3289,41 @@
       <c r="D45" s="4">
         <v>8</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="13">
         <v>15</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>80</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <v>18400</v>
       </c>
-      <c r="J45" s="5">
-        <v>7</v>
-      </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
+        <v>7</v>
+      </c>
+      <c r="L45" s="6">
         <v>1750</v>
       </c>
-      <c r="L45" s="10">
-        <v>2</v>
-      </c>
-      <c r="M45" s="5">
+      <c r="M45" s="10">
+        <v>2</v>
+      </c>
+      <c r="N45" s="5">
         <v>41</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <v>43</v>
       </c>
@@ -3173,38 +3333,41 @@
       <c r="D46" s="4">
         <v>8</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="13">
         <v>16</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>85</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>20900</v>
       </c>
-      <c r="J46" s="5">
-        <v>7</v>
-      </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
+        <v>7</v>
+      </c>
+      <c r="L46" s="6">
         <v>2120</v>
       </c>
-      <c r="L46" s="10">
-        <v>2</v>
-      </c>
-      <c r="M46" s="5">
+      <c r="M46" s="10">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5">
         <v>42</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" s="3">
         <v>44</v>
       </c>
@@ -3214,38 +3377,41 @@
       <c r="D47" s="4">
         <v>8</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="13">
         <v>17</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>90</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>23600</v>
       </c>
-      <c r="J47" s="5">
-        <v>7</v>
-      </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
+        <v>7</v>
+      </c>
+      <c r="L47" s="6">
         <v>2530</v>
       </c>
-      <c r="L47" s="10">
-        <v>2</v>
-      </c>
-      <c r="M47" s="5">
+      <c r="M47" s="10">
+        <v>2</v>
+      </c>
+      <c r="N47" s="5">
         <v>43</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="P47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B48" s="3">
         <v>45</v>
       </c>
@@ -3255,38 +3421,41 @@
       <c r="D48" s="4">
         <v>8</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="13">
         <v>18</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>95</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>26500</v>
       </c>
-      <c r="J48" s="5">
-        <v>7</v>
-      </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
+        <v>7</v>
+      </c>
+      <c r="L48" s="6">
         <v>3000</v>
       </c>
-      <c r="L48" s="10">
-        <v>2</v>
-      </c>
-      <c r="M48" s="5">
+      <c r="M48" s="10">
+        <v>2</v>
+      </c>
+      <c r="N48" s="5">
         <v>44</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="P48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="Q48" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" s="3">
         <v>46</v>
       </c>
@@ -3296,38 +3465,41 @@
       <c r="D49" s="4">
         <v>8</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="13">
         <v>19</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>100</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>29500</v>
       </c>
-      <c r="J49" s="5">
-        <v>7</v>
-      </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
+        <v>7</v>
+      </c>
+      <c r="L49" s="6">
         <v>3520</v>
       </c>
-      <c r="L49" s="10">
-        <v>2</v>
-      </c>
-      <c r="M49" s="5">
+      <c r="M49" s="10">
+        <v>2</v>
+      </c>
+      <c r="N49" s="5">
         <v>45</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
         <v>47</v>
       </c>
@@ -3337,38 +3509,41 @@
       <c r="D50" s="4">
         <v>8</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="13">
         <v>20</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>105</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>43700</v>
       </c>
-      <c r="J50" s="5">
-        <v>7</v>
-      </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
+        <v>7</v>
+      </c>
+      <c r="L50" s="6">
         <v>4090</v>
       </c>
-      <c r="L50" s="10">
-        <v>2</v>
-      </c>
-      <c r="M50" s="5">
+      <c r="M50" s="10">
+        <v>2</v>
+      </c>
+      <c r="N50" s="5">
         <v>46</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
         <v>48</v>
       </c>
@@ -3378,38 +3553,41 @@
       <c r="D51" s="4">
         <v>8</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" s="13">
         <v>21</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>110</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>48100</v>
       </c>
-      <c r="J51" s="5">
-        <v>7</v>
-      </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
+        <v>7</v>
+      </c>
+      <c r="L51" s="6">
         <v>4730</v>
       </c>
-      <c r="L51" s="10">
-        <v>2</v>
-      </c>
-      <c r="M51" s="5">
+      <c r="M51" s="10">
+        <v>2</v>
+      </c>
+      <c r="N51" s="5">
         <v>47</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="Q51" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
         <v>49</v>
       </c>
@@ -3419,38 +3597,41 @@
       <c r="D52" s="4">
         <v>8</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="13">
         <v>22</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>115</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>52800</v>
       </c>
-      <c r="J52" s="5">
-        <v>7</v>
-      </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
+        <v>7</v>
+      </c>
+      <c r="L52" s="6">
         <v>5430</v>
       </c>
-      <c r="L52" s="10">
-        <v>2</v>
-      </c>
-      <c r="M52" s="5">
+      <c r="M52" s="10">
+        <v>2</v>
+      </c>
+      <c r="N52" s="5">
         <v>48</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="P52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="Q52" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B53" s="3">
         <v>50</v>
       </c>
@@ -3460,38 +3641,41 @@
       <c r="D53" s="4">
         <v>8</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="13">
         <v>23</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>120</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>57800</v>
       </c>
-      <c r="J53" s="5">
-        <v>7</v>
-      </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
+        <v>7</v>
+      </c>
+      <c r="L53" s="6">
         <v>6190</v>
       </c>
-      <c r="L53" s="10">
-        <v>2</v>
-      </c>
-      <c r="M53" s="5">
+      <c r="M53" s="10">
+        <v>2</v>
+      </c>
+      <c r="N53" s="5">
         <v>49</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="P53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B54" s="3">
         <v>51</v>
       </c>
@@ -3501,38 +3685,41 @@
       <c r="D54" s="4">
         <v>8</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="13">
         <v>24</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>125</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>62900</v>
       </c>
-      <c r="J54" s="5">
-        <v>7</v>
-      </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
+        <v>7</v>
+      </c>
+      <c r="L54" s="6">
         <v>7020</v>
       </c>
-      <c r="L54" s="10">
-        <v>2</v>
-      </c>
-      <c r="M54" s="5">
+      <c r="M54" s="10">
+        <v>2</v>
+      </c>
+      <c r="N54" s="5">
         <v>50</v>
       </c>
-      <c r="O54" s="4" t="s">
+      <c r="P54" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="Q54" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
         <v>52</v>
       </c>
@@ -3542,38 +3729,41 @@
       <c r="D55" s="4">
         <v>8</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="13">
         <v>25</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>130</v>
       </c>
-      <c r="I55" s="6">
+      <c r="J55" s="6">
         <v>68200</v>
       </c>
-      <c r="J55" s="5">
-        <v>7</v>
-      </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
+        <v>7</v>
+      </c>
+      <c r="L55" s="6">
         <v>7920</v>
       </c>
-      <c r="L55" s="10">
-        <v>2</v>
-      </c>
-      <c r="M55" s="5">
+      <c r="M55" s="10">
+        <v>2</v>
+      </c>
+      <c r="N55" s="5">
         <v>51</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="P55" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B56" s="3">
         <v>53</v>
       </c>
@@ -3583,38 +3773,41 @@
       <c r="D56" s="4">
         <v>8</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="13">
         <v>26</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>135</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <v>73800</v>
       </c>
-      <c r="J56" s="5">
-        <v>7</v>
-      </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
+        <v>7</v>
+      </c>
+      <c r="L56" s="6">
         <v>8900</v>
       </c>
-      <c r="L56" s="10">
-        <v>2</v>
-      </c>
-      <c r="M56" s="5">
+      <c r="M56" s="10">
+        <v>2</v>
+      </c>
+      <c r="N56" s="5">
         <v>52</v>
       </c>
-      <c r="O56" s="4" t="s">
+      <c r="P56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" s="3">
         <v>54</v>
       </c>
@@ -3624,38 +3817,41 @@
       <c r="D57" s="4">
         <v>8</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" s="13">
         <v>27</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <v>140</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="6">
         <v>79600</v>
       </c>
-      <c r="J57" s="5">
-        <v>7</v>
-      </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
+        <v>7</v>
+      </c>
+      <c r="L57" s="6">
         <v>9950</v>
       </c>
-      <c r="L57" s="10">
-        <v>2</v>
-      </c>
-      <c r="M57" s="5">
+      <c r="M57" s="10">
+        <v>2</v>
+      </c>
+      <c r="N57" s="5">
         <v>53</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="P57" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="Q57" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" s="3">
         <v>55</v>
       </c>
@@ -3665,38 +3861,41 @@
       <c r="D58" s="4">
         <v>8</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="13">
         <v>28</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>145</v>
       </c>
-      <c r="I58" s="6">
+      <c r="J58" s="6">
         <v>85600</v>
       </c>
-      <c r="J58" s="5">
-        <v>7</v>
-      </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
+        <v>7</v>
+      </c>
+      <c r="L58" s="6">
         <v>11090</v>
       </c>
-      <c r="L58" s="10">
-        <v>2</v>
-      </c>
-      <c r="M58" s="5">
+      <c r="M58" s="10">
+        <v>2</v>
+      </c>
+      <c r="N58" s="5">
         <v>54</v>
       </c>
-      <c r="O58" s="4" t="s">
+      <c r="P58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="Q58" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" s="3">
         <v>56</v>
       </c>
@@ -3706,38 +3905,41 @@
       <c r="D59" s="4">
         <v>8</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="13">
         <v>29</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>150</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="6">
         <v>91800</v>
       </c>
-      <c r="J59" s="5">
-        <v>7</v>
-      </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
+        <v>7</v>
+      </c>
+      <c r="L59" s="6">
         <v>12300</v>
       </c>
-      <c r="L59" s="10">
-        <v>2</v>
-      </c>
-      <c r="M59" s="5">
+      <c r="M59" s="10">
+        <v>2</v>
+      </c>
+      <c r="N59" s="5">
         <v>55</v>
       </c>
-      <c r="O59" s="4" t="s">
+      <c r="P59" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P59" s="4" t="s">
+      <c r="Q59" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" s="3">
         <v>57</v>
       </c>
@@ -3747,38 +3949,41 @@
       <c r="D60" s="4">
         <v>8</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="13">
         <v>30</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H60" s="4">
         <v>155</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="6">
         <v>98300</v>
       </c>
-      <c r="J60" s="5">
-        <v>7</v>
-      </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
+        <v>7</v>
+      </c>
+      <c r="L60" s="6">
         <v>13600</v>
       </c>
-      <c r="L60" s="10">
-        <v>2</v>
-      </c>
-      <c r="M60" s="5">
+      <c r="M60" s="10">
+        <v>2</v>
+      </c>
+      <c r="N60" s="5">
         <v>56</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="P60" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="Q60" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
         <v>58</v>
       </c>
@@ -3788,38 +3993,41 @@
       <c r="D61" s="4">
         <v>8</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="13">
         <v>31</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>160</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="6">
         <v>105000</v>
       </c>
-      <c r="J61" s="5">
-        <v>7</v>
-      </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
+        <v>7</v>
+      </c>
+      <c r="L61" s="6">
         <v>15000</v>
       </c>
-      <c r="L61" s="10">
-        <v>2</v>
-      </c>
-      <c r="M61" s="5">
+      <c r="M61" s="10">
+        <v>2</v>
+      </c>
+      <c r="N61" s="5">
         <v>57</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="P61" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="Q61" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
         <v>59</v>
       </c>
@@ -3829,38 +4037,41 @@
       <c r="D62" s="4">
         <v>8</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="13">
         <v>32</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <v>165</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>111800</v>
       </c>
-      <c r="J62" s="5">
-        <v>7</v>
-      </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
+        <v>7</v>
+      </c>
+      <c r="L62" s="6">
         <v>16480</v>
       </c>
-      <c r="L62" s="10">
-        <v>2</v>
-      </c>
-      <c r="M62" s="5">
+      <c r="M62" s="10">
+        <v>2</v>
+      </c>
+      <c r="N62" s="5">
         <v>58</v>
       </c>
-      <c r="O62" s="4" t="s">
+      <c r="P62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="Q62" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <v>60</v>
       </c>
@@ -3870,38 +4081,41 @@
       <c r="D63" s="4">
         <v>8</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="13">
         <v>33</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="4">
+      <c r="H63" s="4">
         <v>170</v>
       </c>
-      <c r="I63" s="6">
+      <c r="J63" s="6">
         <v>118900</v>
       </c>
-      <c r="J63" s="5">
-        <v>7</v>
-      </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
+        <v>7</v>
+      </c>
+      <c r="L63" s="6">
         <v>18060</v>
       </c>
-      <c r="L63" s="10">
-        <v>2</v>
-      </c>
-      <c r="M63" s="5">
+      <c r="M63" s="10">
+        <v>2</v>
+      </c>
+      <c r="N63" s="5">
         <v>59</v>
       </c>
-      <c r="O63" s="4" t="s">
+      <c r="P63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="Q63" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B64" s="3">
         <v>61</v>
       </c>
@@ -3911,38 +4125,41 @@
       <c r="D64" s="4">
         <v>8</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="13">
         <v>34</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H64" s="4">
         <v>175</v>
       </c>
-      <c r="I64" s="6">
+      <c r="J64" s="6">
         <v>126300</v>
       </c>
-      <c r="J64" s="5">
-        <v>7</v>
-      </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
+        <v>7</v>
+      </c>
+      <c r="L64" s="6">
         <v>19730</v>
       </c>
-      <c r="L64" s="10">
-        <v>2</v>
-      </c>
-      <c r="M64" s="5">
+      <c r="M64" s="10">
+        <v>2</v>
+      </c>
+      <c r="N64" s="5">
         <v>60</v>
       </c>
-      <c r="O64" s="4" t="s">
+      <c r="P64" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P64" s="4" t="s">
+      <c r="Q64" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
         <v>62</v>
       </c>
@@ -3952,38 +4169,41 @@
       <c r="D65" s="4">
         <v>8</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="13">
         <v>35</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="4">
+      <c r="H65" s="4">
         <v>180</v>
       </c>
-      <c r="I65" s="6">
+      <c r="J65" s="6">
         <v>133800</v>
       </c>
-      <c r="J65" s="5">
-        <v>7</v>
-      </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
+        <v>7</v>
+      </c>
+      <c r="L65" s="6">
         <v>21510</v>
       </c>
-      <c r="L65" s="10">
-        <v>2</v>
-      </c>
-      <c r="M65" s="5">
+      <c r="M65" s="10">
+        <v>2</v>
+      </c>
+      <c r="N65" s="5">
         <v>61</v>
       </c>
-      <c r="O65" s="4" t="s">
+      <c r="P65" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P65" s="4" t="s">
+      <c r="Q65" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
         <v>63</v>
       </c>
@@ -3993,38 +4213,41 @@
       <c r="D66" s="4">
         <v>8</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="13">
         <v>36</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H66" s="4">
         <v>185</v>
       </c>
-      <c r="I66" s="6">
+      <c r="J66" s="6">
         <v>177000</v>
       </c>
-      <c r="J66" s="5">
-        <v>7</v>
-      </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
+        <v>7</v>
+      </c>
+      <c r="L66" s="6">
         <v>23390</v>
       </c>
-      <c r="L66" s="10">
-        <v>2</v>
-      </c>
-      <c r="M66" s="5">
+      <c r="M66" s="10">
+        <v>2</v>
+      </c>
+      <c r="N66" s="5">
         <v>62</v>
       </c>
-      <c r="O66" s="4" t="s">
+      <c r="P66" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P66" s="4" t="s">
+      <c r="Q66" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
         <v>64</v>
       </c>
@@ -4034,38 +4257,41 @@
       <c r="D67" s="4">
         <v>8</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="13">
         <v>37</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="4">
+      <c r="H67" s="4">
         <v>190</v>
       </c>
-      <c r="I67" s="6">
+      <c r="J67" s="6">
         <v>186900</v>
       </c>
-      <c r="J67" s="5">
-        <v>7</v>
-      </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
+        <v>7</v>
+      </c>
+      <c r="L67" s="6">
         <v>25370</v>
       </c>
-      <c r="L67" s="10">
-        <v>2</v>
-      </c>
-      <c r="M67" s="5">
+      <c r="M67" s="10">
+        <v>2</v>
+      </c>
+      <c r="N67" s="5">
         <v>63</v>
       </c>
-      <c r="O67" s="4" t="s">
+      <c r="P67" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P67" s="4" t="s">
+      <c r="Q67" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" s="3">
         <v>65</v>
       </c>
@@ -4075,38 +4301,41 @@
       <c r="D68" s="4">
         <v>8</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="13">
         <v>38</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>195</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="6">
         <v>197200</v>
       </c>
-      <c r="J68" s="5">
-        <v>7</v>
-      </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
+        <v>7</v>
+      </c>
+      <c r="L68" s="6">
         <v>27470</v>
       </c>
-      <c r="L68" s="10">
-        <v>2</v>
-      </c>
-      <c r="M68" s="5">
+      <c r="M68" s="10">
+        <v>2</v>
+      </c>
+      <c r="N68" s="5">
         <v>64</v>
       </c>
-      <c r="O68" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P68" s="4" t="s">
+      <c r="Q68" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B69" s="3">
         <v>66</v>
       </c>
@@ -4116,38 +4345,41 @@
       <c r="D69" s="4">
         <v>8</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="13">
         <v>39</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <v>200</v>
       </c>
-      <c r="I69" s="6">
+      <c r="J69" s="6">
         <v>207700</v>
       </c>
-      <c r="J69" s="5">
-        <v>7</v>
-      </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
+        <v>7</v>
+      </c>
+      <c r="L69" s="6">
         <v>29670</v>
       </c>
-      <c r="L69" s="10">
-        <v>2</v>
-      </c>
-      <c r="M69" s="5">
+      <c r="M69" s="10">
+        <v>2</v>
+      </c>
+      <c r="N69" s="5">
         <v>65</v>
       </c>
-      <c r="O69" s="4" t="s">
+      <c r="P69" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="Q69" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B70" s="3">
         <v>67</v>
       </c>
@@ -4157,38 +4389,41 @@
       <c r="D70" s="4">
         <v>8</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="13">
         <v>40</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>205</v>
       </c>
-      <c r="I70" s="6">
+      <c r="J70" s="6">
         <v>218500</v>
       </c>
-      <c r="J70" s="5">
-        <v>7</v>
-      </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
+        <v>7</v>
+      </c>
+      <c r="L70" s="6">
         <v>32780</v>
       </c>
-      <c r="L70" s="10">
-        <v>2</v>
-      </c>
-      <c r="M70" s="5">
+      <c r="M70" s="10">
+        <v>2</v>
+      </c>
+      <c r="N70" s="5">
         <v>66</v>
       </c>
-      <c r="O70" s="4" t="s">
+      <c r="P70" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="Q70" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B71" s="3">
         <v>68</v>
       </c>
@@ -4198,36 +4433,39 @@
       <c r="D71" s="4">
         <v>9</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="4">
         <v>1</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <v>1</v>
       </c>
-      <c r="I71" s="6">
+      <c r="J71" s="6">
         <v>50</v>
       </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="6"/>
+      <c r="L71" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="L71" s="4">
-        <v>2</v>
-      </c>
       <c r="M71" s="4">
+        <v>2</v>
+      </c>
+      <c r="N71" s="4">
         <v>1</v>
       </c>
-      <c r="O71" s="4" t="s">
+      <c r="P71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P71" s="4" t="s">
+      <c r="Q71" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B72" s="3">
         <v>69</v>
       </c>
@@ -4237,36 +4475,39 @@
       <c r="D72" s="4">
         <v>9</v>
       </c>
-      <c r="E72" s="4">
-        <v>2</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="E72" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="4">
-        <v>2</v>
-      </c>
-      <c r="I72" s="6">
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="J72" s="6">
         <v>2500</v>
       </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="6"/>
+      <c r="L72" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="L72" s="4">
-        <v>2</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="4">
+        <v>2</v>
+      </c>
+      <c r="N72" s="3">
         <v>68</v>
       </c>
-      <c r="O72" s="4" t="s">
+      <c r="P72" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P72" s="4" t="s">
+      <c r="Q72" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B73" s="3">
         <v>70</v>
       </c>
@@ -4276,36 +4517,39 @@
       <c r="D73" s="4">
         <v>9</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="4">
         <v>3</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="4">
+      <c r="H73" s="4">
         <v>3</v>
       </c>
-      <c r="I73" s="6">
+      <c r="J73" s="6">
         <v>16350</v>
       </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="6"/>
+      <c r="L73" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L73" s="4">
-        <v>2</v>
-      </c>
-      <c r="M73" s="3">
+      <c r="M73" s="4">
+        <v>2</v>
+      </c>
+      <c r="N73" s="3">
         <v>69</v>
       </c>
-      <c r="O73" s="4" t="s">
+      <c r="P73" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P73" s="4" t="s">
+      <c r="Q73" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B74" s="3">
         <v>71</v>
       </c>
@@ -4315,36 +4559,39 @@
       <c r="D74" s="4">
         <v>9</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="4">
         <v>4</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="4">
         <v>4</v>
       </c>
-      <c r="I74" s="6">
+      <c r="J74" s="6">
         <v>70350</v>
       </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6" t="s">
+      <c r="K74" s="6"/>
+      <c r="L74" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L74" s="4">
-        <v>2</v>
-      </c>
-      <c r="M74" s="3">
+      <c r="M74" s="4">
+        <v>2</v>
+      </c>
+      <c r="N74" s="3">
         <v>70</v>
       </c>
-      <c r="O74" s="4" t="s">
+      <c r="P74" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="Q74" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B75" s="3">
         <v>72</v>
       </c>
@@ -4354,53 +4601,56 @@
       <c r="D75" s="4">
         <v>9</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="4">
         <v>5</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <v>5</v>
       </c>
-      <c r="I75" s="6">
+      <c r="J75" s="6">
         <v>224000</v>
       </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="6"/>
+      <c r="L75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="4">
-        <v>2</v>
-      </c>
-      <c r="M75" s="3">
+      <c r="M75" s="4">
+        <v>2</v>
+      </c>
+      <c r="N75" s="3">
         <v>71</v>
       </c>
-      <c r="O75" s="4" t="s">
+      <c r="P75" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J76" s="6"/>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J77" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J78" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J79" s="6"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P75"/>
+  <autoFilter ref="A1:Q75"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:T2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="-120" windowWidth="20736" windowHeight="9156" activeTab="1"/>
+    <workbookView xWindow="2700" yWindow="15" windowWidth="20730" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="193">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前可出战【1人】\n升级后出战人数+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前可出战【2人】\n升级后出战人数+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,173 +275,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建造完成！你可以生产干粮了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有钱就有地，有地就有粮食！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁【生铁】的生产</t>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【生铁】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【灰钢】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【灰钢】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【锰铜】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【锰铜】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【陨铁】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【陨铁】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【钨钢】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【钨钢】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【圆木】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【圆木】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【柳木】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【柳木】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【蛮皮】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【蛮皮】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【兽皮】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【兽皮】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【轻革】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【轻革】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【重革】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【重革】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【绒面革】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【绒面革】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【青麻】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【青麻】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【绢布】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【绢布】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【丝绸】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【丝绸】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【蚕丝布】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【蚕丝布】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【秀水绫】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【秀水绫】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【砥石】的开采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【砥石】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【夏目石】的开采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【夏目石】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【孔雀石】的开采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【孔雀石】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可获得【农夫】10人</t>
   </si>
   <si>
@@ -453,126 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你当前拥有【农夫】10人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】15人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】20人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】25人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】30人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】35人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】40人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】45人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】50人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】55人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】60人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】65人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】70人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】75人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】80人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】85人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】90人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】95人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】100人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】105人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】110人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】115人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】120人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】125人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】130人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】135人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】140人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】145人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】150人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】155人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】160人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】165人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】170人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】175人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】180人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】185人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】190人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】195人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】200人</t>
-  </si>
-  <si>
-    <t>你当前拥有【农夫】205人</t>
-  </si>
-  <si>
     <t>解锁干粮生产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,54 +315,6 @@
   </si>
   <si>
     <t>对应最终出战数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修缮完成！可以去征服世界了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的队伍壮大了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【樟木】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【天杉木】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【龙祥木】的生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【藏魂石】的开采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁【黑晶石】的开采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【樟木】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【天杉木】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【龙祥木】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【藏魂石】了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造完成！你可以生产【黑晶石】了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,52 +345,374 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>CostItemCounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jz_baozipu</t>
+  </si>
+  <si>
+    <t>jz_kuodi</t>
+  </si>
+  <si>
+    <t>jz_minsu</t>
+  </si>
+  <si>
+    <t>jz_mucaifang</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】10人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】15人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】20人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】25人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】30人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】35人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】40人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】45人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】50人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】55人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】60人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】65人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】70人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】75人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】80人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】85人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】90人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】95人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】100人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】105人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】110人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】115人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】120人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】125人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】130人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】135人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】140人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】145人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】150人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】155人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】160人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】165人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】170人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】175人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】180人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】185人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】190人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】195人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】200人</t>
+  </si>
+  <si>
+    <t>您当前拥有【农夫】205人</t>
+  </si>
+  <si>
+    <t>您的队伍壮大了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产干粮了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【生铁】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【灰钢】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【锰铜】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【陨铁】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【钨钢】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【圆木】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【柳木】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【樟木】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【天杉木】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【龙祥木】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【蛮皮】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【兽皮】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【轻革】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【重革】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【绒面革】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【青麻】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【绢布】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【丝绸】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【蚕丝布】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【秀水绫】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【砥石】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【藏魂石】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【黑晶石】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【夏目石】了！</t>
+  </si>
+  <si>
+    <t>建造完成！您可以生产【孔雀石】了！</t>
+  </si>
+  <si>
+    <t>当前可出战【1人】\n升级后出战人数+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【生铁】的生产\n下级解锁【灰钢】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【灰钢】的生产\n下级解锁【锰铜】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【锰铜】的生产\n下级解锁【陨铁】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【钨钢】的生产\n下级解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【陨铁】的生产\n下级解锁【钨钢】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【圆木】的生产\n下级解锁【柳木】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【柳木】的生产\n下级解锁【樟木】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【樟木】的生产\n下级解锁【天杉木】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【龙祥木】的生产\n下级解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【天杉木】的生产\n下级解锁【龙祥木】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【蛮皮】的生产\n下级解锁【兽皮】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【兽皮】的生产\n下级解锁【轻革】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【轻革】的生产\n下级解锁【重革】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【绒面革】的生产\n下级解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【重革】的生产\n下级解锁【绒面革】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【青麻】的生产\n下级解锁【绢布】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【绢布】的生产\n下级解锁【丝绸】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【丝绸】的生产\n下级解锁【蚕丝布】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【秀水绫】的生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【蚕丝布】的生产\n下级解锁【秀水绫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【砥石】的开采\n下级解锁【藏魂石】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【藏魂石】的开采\n下级解锁【黑晶石】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【黑晶石】的开采\n下级解锁【夏目石】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【孔雀石】的开采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁【夏目石】的开采\n下级解锁【孔雀石】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修缮完成！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30|30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90|90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>390|390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420|420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostItemCounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jz_baozipu</t>
-  </si>
-  <si>
-    <t>jz_kuodi</t>
-  </si>
-  <si>
-    <t>jz_minsu</t>
-  </si>
-  <si>
-    <t>jz_mucaifang</t>
+    <t>18|18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60|60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250|250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400|400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -811,7 +798,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,7 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -852,13 +845,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -877,7 +869,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -919,7 +911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,7 +946,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1169,16 +1161,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1203,35 +1195,35 @@
   <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="10.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="42.88671875" style="4" customWidth="1"/>
-    <col min="17" max="18" width="31.21875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="42.875" style="4" customWidth="1"/>
+    <col min="17" max="18" width="31.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.625" style="4" customWidth="1"/>
     <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -1266,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>29</v>
@@ -1281,10 +1273,10 @@
         <v>48</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -1337,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -1366,13 +1358,13 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>30</v>
@@ -1387,10 +1379,10 @@
         <v>47</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1401,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1416,22 +1408,26 @@
       <c r="J4" s="3">
         <v>20</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="3">
+        <v>7</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4</v>
+      </c>
       <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="15">
         <v>2</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1442,13 +1438,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -1457,19 +1453,23 @@
       <c r="J5" s="3">
         <v>10</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="3">
+        <v>168</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
       <c r="M5" s="4">
-        <v>3</v>
-      </c>
-      <c r="N5" s="4">
-        <v>195</v>
+        <v>2</v>
+      </c>
+      <c r="N5" s="15">
+        <v>28</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>43</v>
@@ -1481,7 +1481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1492,22 +1492,22 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>120</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <v>22</v>
       </c>
       <c r="L6" s="3">
@@ -1516,23 +1516,23 @@
       <c r="M6" s="4">
         <v>2</v>
       </c>
-      <c r="N6" s="4">
-        <v>68</v>
+      <c r="N6" s="15">
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1543,38 +1543,38 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="9">
-        <v>2400</v>
-      </c>
-      <c r="K7" s="14">
+      <c r="J7" s="11">
+        <v>600</v>
+      </c>
+      <c r="K7" s="12">
         <v>22</v>
       </c>
       <c r="L7" s="3">
-        <v>60</v>
-      </c>
-      <c r="M7" s="10">
-        <v>2</v>
-      </c>
-      <c r="N7" s="11">
+        <v>34</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
         <v>3</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="S7" s="4">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1597,50 +1597,50 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="9">
-        <v>16200</v>
+      <c r="J8" s="11">
+        <v>2400</v>
       </c>
       <c r="K8" s="3">
         <v>23</v>
       </c>
       <c r="L8" s="3">
-        <v>90</v>
-      </c>
-      <c r="M8" s="10">
-        <v>2</v>
-      </c>
-      <c r="N8" s="11">
+        <v>94</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="S8" s="4">
         <v>3</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1651,44 +1651,44 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="9">
-        <v>72000</v>
+      <c r="J9" s="11">
+        <v>9000</v>
       </c>
       <c r="K9" s="3">
         <v>23</v>
       </c>
       <c r="L9" s="3">
-        <v>400</v>
-      </c>
-      <c r="M9" s="10">
-        <v>2</v>
-      </c>
-      <c r="N9" s="11">
+        <v>350</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1699,44 +1699,44 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="9">
-        <v>222400</v>
+      <c r="J10" s="11">
+        <v>21000</v>
       </c>
       <c r="K10" s="3">
         <v>24</v>
       </c>
       <c r="L10" s="3">
-        <v>460</v>
-      </c>
-      <c r="M10" s="10">
-        <v>2</v>
-      </c>
-      <c r="N10" s="11">
+        <v>550</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
         <v>6</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -1747,13 +1747,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3">
         <v>8</v>
@@ -1762,26 +1762,26 @@
       <c r="J11" s="9">
         <v>120</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <v>22</v>
       </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="N11" s="4">
-        <v>68</v>
+      <c r="N11" s="15">
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -1792,50 +1792,50 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3">
         <v>9</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5">
-        <v>2400</v>
-      </c>
-      <c r="K12" s="14">
+        <v>720</v>
+      </c>
+      <c r="K12" s="12">
         <v>22</v>
       </c>
       <c r="L12" s="3">
         <v>60</v>
       </c>
-      <c r="M12" s="10">
-        <v>2</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
         <v>8</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -1846,50 +1846,50 @@
         <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5">
-        <v>16200</v>
+        <v>2160</v>
       </c>
       <c r="K13" s="3">
         <v>23</v>
       </c>
       <c r="L13" s="3">
-        <v>90</v>
-      </c>
-      <c r="M13" s="10">
-        <v>2</v>
-      </c>
-      <c r="N13" s="11">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
         <v>9</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -1900,50 +1900,50 @@
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="3">
         <v>11</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5">
-        <v>72000</v>
+        <v>8100</v>
       </c>
       <c r="K14" s="3">
         <v>23</v>
       </c>
       <c r="L14" s="3">
-        <v>400</v>
-      </c>
-      <c r="M14" s="10">
-        <v>2</v>
-      </c>
-      <c r="N14" s="11">
+        <v>375</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
         <v>10</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>12</v>
       </c>
@@ -1954,50 +1954,50 @@
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="3">
         <v>12</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5">
-        <v>222400</v>
+        <v>16200</v>
       </c>
       <c r="K15" s="3">
         <v>24</v>
       </c>
       <c r="L15" s="3">
-        <v>460</v>
-      </c>
-      <c r="M15" s="10">
-        <v>2</v>
-      </c>
-      <c r="N15" s="11">
+        <v>475</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4">
         <v>11</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -2008,41 +2008,41 @@
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="3">
         <v>13</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="5">
-        <v>1200</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="3">
+        <v>180</v>
+      </c>
+      <c r="K16" s="12">
         <v>7</v>
       </c>
       <c r="L16" s="3">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M16" s="4">
         <v>2</v>
       </c>
       <c r="N16" s="4">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -2053,41 +2053,41 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="3">
         <v>14</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="5">
-        <v>3600</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="J17" s="3">
+        <v>720</v>
+      </c>
+      <c r="K17" s="12">
         <v>7</v>
       </c>
       <c r="L17" s="3">
-        <v>90</v>
-      </c>
-      <c r="M17" s="10">
-        <v>2</v>
-      </c>
-      <c r="N17" s="11">
+        <v>50</v>
+      </c>
+      <c r="M17" s="4">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4">
         <v>13</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -2098,41 +2098,41 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="3">
         <v>15</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="5">
-        <v>64800</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K18" s="12">
         <v>8</v>
       </c>
       <c r="L18" s="3">
-        <v>360</v>
-      </c>
-      <c r="M18" s="10">
-        <v>2</v>
-      </c>
-      <c r="N18" s="11">
+        <v>100</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4">
         <v>14</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -2143,41 +2143,41 @@
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="3">
         <v>16</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="5">
-        <v>108000</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K19" s="12">
         <v>8</v>
       </c>
       <c r="L19" s="4">
-        <v>600</v>
-      </c>
-      <c r="M19" s="10">
-        <v>2</v>
-      </c>
-      <c r="N19" s="11">
+        <v>390</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4">
         <v>15</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -2188,41 +2188,41 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="3">
         <v>17</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="5">
-        <v>259200</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="J20" s="3">
+        <v>15750</v>
+      </c>
+      <c r="K20" s="12">
         <v>9</v>
       </c>
       <c r="L20" s="4">
-        <v>405</v>
-      </c>
-      <c r="M20" s="10">
-        <v>2</v>
-      </c>
-      <c r="N20" s="11">
+        <v>350</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4">
         <v>16</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -2233,41 +2233,41 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="3">
         <v>18</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5">
-        <v>1200</v>
-      </c>
-      <c r="K21" s="3">
+        <v>120</v>
+      </c>
+      <c r="K21" s="12">
         <v>7</v>
       </c>
       <c r="L21" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>19</v>
       </c>
@@ -2278,41 +2278,41 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="3">
         <v>19</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5">
-        <v>3600</v>
-      </c>
-      <c r="K22" s="3">
+        <v>720</v>
+      </c>
+      <c r="K22" s="12">
         <v>7</v>
       </c>
       <c r="L22" s="3">
-        <v>90</v>
-      </c>
-      <c r="M22" s="10">
-        <v>2</v>
-      </c>
-      <c r="N22" s="11">
+        <v>50</v>
+      </c>
+      <c r="M22" s="13">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4">
         <v>18</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>20</v>
       </c>
@@ -2323,41 +2323,41 @@
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="3">
         <v>20</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5">
-        <v>64800</v>
-      </c>
-      <c r="K23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K23" s="12">
         <v>8</v>
       </c>
       <c r="L23" s="3">
-        <v>360</v>
-      </c>
-      <c r="M23" s="10">
-        <v>2</v>
-      </c>
-      <c r="N23" s="11">
+        <v>100</v>
+      </c>
+      <c r="M23" s="13">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4">
         <v>19</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>21</v>
       </c>
@@ -2368,41 +2368,41 @@
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="3">
         <v>21</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5">
-        <v>108000</v>
-      </c>
-      <c r="K24" s="4">
+        <v>9000</v>
+      </c>
+      <c r="K24" s="12">
         <v>8</v>
       </c>
       <c r="L24" s="4">
-        <v>600</v>
-      </c>
-      <c r="M24" s="10">
-        <v>2</v>
-      </c>
-      <c r="N24" s="11">
+        <v>390</v>
+      </c>
+      <c r="M24" s="13">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
         <v>20</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>22</v>
       </c>
@@ -2413,41 +2413,41 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F25" s="3">
         <v>5</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="3">
         <v>22</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5">
-        <v>259200</v>
-      </c>
-      <c r="K25" s="4">
+        <v>15750</v>
+      </c>
+      <c r="K25" s="12">
         <v>9</v>
       </c>
       <c r="L25" s="4">
-        <v>405</v>
-      </c>
-      <c r="M25" s="10">
-        <v>2</v>
-      </c>
-      <c r="N25" s="11">
+        <v>350</v>
+      </c>
+      <c r="M25" s="13">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
         <v>21</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>23</v>
       </c>
@@ -2458,37 +2458,41 @@
         <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="3">
         <v>23</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="5">
-        <v>60</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="4">
-        <v>2</v>
-      </c>
-      <c r="N26" s="4">
-        <v>68</v>
+      <c r="J26" s="3">
+        <v>90</v>
+      </c>
+      <c r="K26" s="12">
+        <v>96</v>
+      </c>
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="13">
+        <v>2</v>
+      </c>
+      <c r="N26" s="15">
+        <v>1</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>24</v>
       </c>
@@ -2499,37 +2503,41 @@
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="3">
         <v>24</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="5">
-        <v>2500</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="10">
-        <v>2</v>
-      </c>
-      <c r="N27" s="11">
+      <c r="J27" s="3">
+        <v>720</v>
+      </c>
+      <c r="K27" s="12">
+        <v>97</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4">
         <v>23</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>25</v>
       </c>
@@ -2540,37 +2548,41 @@
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="3">
         <v>25</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="5">
-        <v>16500</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="10">
-        <v>2</v>
-      </c>
-      <c r="N28" s="11">
+      <c r="J28" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K28" s="12">
+        <v>98</v>
+      </c>
+      <c r="L28" s="7">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13">
+        <v>2</v>
+      </c>
+      <c r="N28" s="4">
         <v>24</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>26</v>
       </c>
@@ -2581,37 +2593,41 @@
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3">
         <v>4</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="3">
         <v>26</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="5">
-        <v>70500</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="10">
-        <v>2</v>
-      </c>
-      <c r="N29" s="11">
+      <c r="J29" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K29" s="12">
+        <v>99</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="13">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4">
         <v>25</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>27</v>
       </c>
@@ -2622,37 +2638,41 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="F30" s="3">
         <v>5</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="3">
         <v>27</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="5">
-        <v>223400</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="10">
-        <v>2</v>
-      </c>
-      <c r="N30" s="11">
+      <c r="J30" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K30" s="12">
+        <v>100</v>
+      </c>
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="13">
+        <v>2</v>
+      </c>
+      <c r="N30" s="4">
         <v>26</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>28</v>
       </c>
@@ -2663,38 +2683,38 @@
         <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="13">
+        <v>89</v>
+      </c>
+      <c r="F31" s="11">
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="3">
         <v>10</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K31" s="5">
         <v>7</v>
       </c>
-      <c r="L31" s="5">
-        <v>2</v>
-      </c>
-      <c r="M31" s="4">
+      <c r="L31" s="3">
         <v>1</v>
       </c>
+      <c r="M31" s="14">
+        <v>1</v>
+      </c>
       <c r="P31" s="4" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>29</v>
       </c>
@@ -2705,9 +2725,9 @@
         <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="13">
+        <v>89</v>
+      </c>
+      <c r="F32" s="11">
         <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -2718,28 +2738,28 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="K32" s="5">
         <v>7</v>
       </c>
-      <c r="L32" s="5">
-        <v>8</v>
-      </c>
-      <c r="M32" s="10">
-        <v>2</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="L32" s="3">
+        <v>5</v>
+      </c>
+      <c r="M32" s="13">
+        <v>2</v>
+      </c>
+      <c r="N32" s="4">
         <v>28</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>30</v>
       </c>
@@ -2750,9 +2770,9 @@
         <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="13">
+        <v>89</v>
+      </c>
+      <c r="F33" s="11">
         <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -2763,28 +2783,28 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5">
-        <v>490</v>
+        <v>260</v>
       </c>
       <c r="K33" s="5">
         <v>7</v>
       </c>
-      <c r="L33" s="5">
-        <v>25</v>
-      </c>
-      <c r="M33" s="10">
-        <v>2</v>
-      </c>
-      <c r="N33" s="5">
+      <c r="L33" s="3">
+        <v>15</v>
+      </c>
+      <c r="M33" s="13">
+        <v>2</v>
+      </c>
+      <c r="N33" s="4">
         <v>29</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>31</v>
       </c>
@@ -2795,9 +2815,9 @@
         <v>8</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="13">
+        <v>89</v>
+      </c>
+      <c r="F34" s="11">
         <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -2808,28 +2828,28 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="5">
-        <v>870</v>
+        <v>470</v>
       </c>
       <c r="K34" s="5">
         <v>7</v>
       </c>
-      <c r="L34" s="5">
-        <v>55</v>
-      </c>
-      <c r="M34" s="10">
-        <v>2</v>
-      </c>
-      <c r="N34" s="5">
+      <c r="L34" s="3">
         <v>30</v>
       </c>
+      <c r="M34" s="13">
+        <v>2</v>
+      </c>
+      <c r="N34" s="4">
+        <v>30</v>
+      </c>
       <c r="P34" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>32</v>
       </c>
@@ -2840,9 +2860,9 @@
         <v>8</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" s="13">
+        <v>89</v>
+      </c>
+      <c r="F35" s="11">
         <v>5</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -2853,28 +2873,28 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="5">
-        <v>1360</v>
+        <v>730</v>
       </c>
       <c r="K35" s="5">
         <v>7</v>
       </c>
-      <c r="L35" s="5">
-        <v>100</v>
-      </c>
-      <c r="M35" s="10">
-        <v>2</v>
-      </c>
-      <c r="N35" s="5">
+      <c r="L35" s="3">
+        <v>55</v>
+      </c>
+      <c r="M35" s="13">
+        <v>2</v>
+      </c>
+      <c r="N35" s="4">
         <v>31</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>33</v>
       </c>
@@ -2885,9 +2905,9 @@
         <v>8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="13">
+        <v>89</v>
+      </c>
+      <c r="F36" s="11">
         <v>6</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -2898,28 +2918,28 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="5">
-        <v>1960</v>
+        <v>1060</v>
       </c>
       <c r="K36" s="5">
         <v>7</v>
       </c>
-      <c r="L36" s="5">
-        <v>165</v>
-      </c>
-      <c r="M36" s="10">
-        <v>2</v>
-      </c>
-      <c r="N36" s="5">
+      <c r="L36" s="3">
+        <v>90</v>
+      </c>
+      <c r="M36" s="13">
+        <v>2</v>
+      </c>
+      <c r="N36" s="4">
         <v>32</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>34</v>
       </c>
@@ -2930,9 +2950,9 @@
         <v>8</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="13">
+        <v>89</v>
+      </c>
+      <c r="F37" s="11">
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -2943,28 +2963,28 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="5">
-        <v>2670</v>
+        <v>1450</v>
       </c>
       <c r="K37" s="5">
         <v>7</v>
       </c>
-      <c r="L37" s="5">
-        <v>255</v>
-      </c>
-      <c r="M37" s="10">
-        <v>2</v>
-      </c>
-      <c r="N37" s="5">
+      <c r="L37" s="3">
+        <v>140</v>
+      </c>
+      <c r="M37" s="13">
+        <v>2</v>
+      </c>
+      <c r="N37" s="4">
         <v>33</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>35</v>
       </c>
@@ -2975,9 +2995,9 @@
         <v>8</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="13">
+        <v>89</v>
+      </c>
+      <c r="F38" s="11">
         <v>8</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -2988,28 +3008,28 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="5">
-        <v>3490</v>
+        <v>1890</v>
       </c>
       <c r="K38" s="5">
         <v>7</v>
       </c>
-      <c r="L38" s="5">
-        <v>375</v>
-      </c>
-      <c r="M38" s="10">
-        <v>2</v>
-      </c>
-      <c r="N38" s="5">
+      <c r="L38" s="3">
+        <v>205</v>
+      </c>
+      <c r="M38" s="13">
+        <v>2</v>
+      </c>
+      <c r="N38" s="4">
         <v>34</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>36</v>
       </c>
@@ -3020,9 +3040,9 @@
         <v>8</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="13">
+        <v>89</v>
+      </c>
+      <c r="F39" s="11">
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -3033,28 +3053,28 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="5">
-        <v>4420</v>
+        <v>2390</v>
       </c>
       <c r="K39" s="5">
         <v>7</v>
       </c>
-      <c r="L39" s="5">
-        <v>455</v>
-      </c>
-      <c r="M39" s="10">
-        <v>2</v>
-      </c>
-      <c r="N39" s="5">
+      <c r="L39" s="3">
+        <v>245</v>
+      </c>
+      <c r="M39" s="13">
+        <v>2</v>
+      </c>
+      <c r="N39" s="4">
         <v>35</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>37</v>
       </c>
@@ -3065,9 +3085,9 @@
         <v>8</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="13">
+        <v>89</v>
+      </c>
+      <c r="F40" s="11">
         <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -3078,28 +3098,28 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="5">
-        <v>8100</v>
+        <v>2900</v>
       </c>
       <c r="K40" s="5">
         <v>7</v>
       </c>
-      <c r="L40" s="5">
-        <v>540</v>
-      </c>
-      <c r="M40" s="10">
-        <v>2</v>
-      </c>
-      <c r="N40" s="5">
+      <c r="L40" s="3">
+        <v>295</v>
+      </c>
+      <c r="M40" s="13">
+        <v>2</v>
+      </c>
+      <c r="N40" s="4">
         <v>36</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>38</v>
       </c>
@@ -3110,9 +3130,9 @@
         <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" s="13">
+        <v>89</v>
+      </c>
+      <c r="F41" s="11">
         <v>11</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -3123,28 +3143,28 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="5">
-        <v>9900</v>
+        <v>3500</v>
       </c>
       <c r="K41" s="5">
         <v>7</v>
       </c>
-      <c r="L41" s="5">
-        <v>710</v>
-      </c>
-      <c r="M41" s="10">
-        <v>2</v>
-      </c>
-      <c r="N41" s="5">
+      <c r="L41" s="3">
+        <v>385</v>
+      </c>
+      <c r="M41" s="13">
+        <v>2</v>
+      </c>
+      <c r="N41" s="4">
         <v>37</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>39</v>
       </c>
@@ -3155,9 +3175,9 @@
         <v>8</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="13">
+        <v>89</v>
+      </c>
+      <c r="F42" s="11">
         <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -3168,28 +3188,28 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="5">
-        <v>11800</v>
+        <v>4200</v>
       </c>
       <c r="K42" s="5">
         <v>7</v>
       </c>
-      <c r="L42" s="5">
-        <v>910</v>
-      </c>
-      <c r="M42" s="10">
-        <v>2</v>
-      </c>
-      <c r="N42" s="5">
+      <c r="L42" s="3">
+        <v>490</v>
+      </c>
+      <c r="M42" s="13">
+        <v>2</v>
+      </c>
+      <c r="N42" s="4">
         <v>38</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>40</v>
       </c>
@@ -3200,9 +3220,9 @@
         <v>8</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="13">
+        <v>89</v>
+      </c>
+      <c r="F43" s="11">
         <v>13</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -3213,28 +3233,28 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="5">
-        <v>13800</v>
+        <v>5000</v>
       </c>
       <c r="K43" s="5">
         <v>7</v>
       </c>
-      <c r="L43" s="5">
-        <v>1150</v>
-      </c>
-      <c r="M43" s="10">
-        <v>2</v>
-      </c>
-      <c r="N43" s="5">
+      <c r="L43" s="3">
+        <v>620</v>
+      </c>
+      <c r="M43" s="13">
+        <v>2</v>
+      </c>
+      <c r="N43" s="4">
         <v>39</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>41</v>
       </c>
@@ -3245,9 +3265,9 @@
         <v>8</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="13">
+        <v>89</v>
+      </c>
+      <c r="F44" s="11">
         <v>14</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3258,28 +3278,28 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="6">
-        <v>16000</v>
+        <v>5800</v>
       </c>
       <c r="K44" s="5">
         <v>7</v>
       </c>
-      <c r="L44" s="5">
-        <v>1430</v>
-      </c>
-      <c r="M44" s="10">
-        <v>2</v>
-      </c>
-      <c r="N44" s="5">
+      <c r="L44" s="3">
+        <v>770</v>
+      </c>
+      <c r="M44" s="13">
+        <v>2</v>
+      </c>
+      <c r="N44" s="4">
         <v>40</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>42</v>
       </c>
@@ -3290,9 +3310,9 @@
         <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="13">
+        <v>89</v>
+      </c>
+      <c r="F45" s="11">
         <v>15</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -3302,28 +3322,28 @@
         <v>80</v>
       </c>
       <c r="J45" s="6">
-        <v>18400</v>
+        <v>9900</v>
       </c>
       <c r="K45" s="5">
         <v>7</v>
       </c>
-      <c r="L45" s="6">
-        <v>1750</v>
-      </c>
-      <c r="M45" s="10">
-        <v>2</v>
-      </c>
-      <c r="N45" s="5">
+      <c r="L45" s="4">
+        <v>950</v>
+      </c>
+      <c r="M45" s="13">
+        <v>2</v>
+      </c>
+      <c r="N45" s="4">
         <v>41</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>43</v>
       </c>
@@ -3334,9 +3354,9 @@
         <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="13">
+        <v>89</v>
+      </c>
+      <c r="F46" s="11">
         <v>16</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -3346,28 +3366,28 @@
         <v>85</v>
       </c>
       <c r="J46" s="6">
-        <v>20900</v>
+        <v>11300</v>
       </c>
       <c r="K46" s="5">
         <v>7</v>
       </c>
-      <c r="L46" s="6">
-        <v>2120</v>
-      </c>
-      <c r="M46" s="10">
-        <v>2</v>
-      </c>
-      <c r="N46" s="5">
+      <c r="L46" s="4">
+        <v>1140</v>
+      </c>
+      <c r="M46" s="13">
+        <v>2</v>
+      </c>
+      <c r="N46" s="4">
         <v>42</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>44</v>
       </c>
@@ -3378,9 +3398,9 @@
         <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="13">
+        <v>89</v>
+      </c>
+      <c r="F47" s="11">
         <v>17</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -3390,28 +3410,28 @@
         <v>90</v>
       </c>
       <c r="J47" s="6">
-        <v>23600</v>
+        <v>12800</v>
       </c>
       <c r="K47" s="5">
         <v>7</v>
       </c>
-      <c r="L47" s="6">
-        <v>2530</v>
-      </c>
-      <c r="M47" s="10">
-        <v>2</v>
-      </c>
-      <c r="N47" s="5">
+      <c r="L47" s="4">
+        <v>1370</v>
+      </c>
+      <c r="M47" s="13">
+        <v>2</v>
+      </c>
+      <c r="N47" s="4">
         <v>43</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>45</v>
       </c>
@@ -3422,9 +3442,9 @@
         <v>8</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" s="13">
+        <v>89</v>
+      </c>
+      <c r="F48" s="11">
         <v>18</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -3434,28 +3454,28 @@
         <v>95</v>
       </c>
       <c r="J48" s="6">
-        <v>26500</v>
+        <v>14300</v>
       </c>
       <c r="K48" s="5">
         <v>7</v>
       </c>
-      <c r="L48" s="6">
-        <v>3000</v>
-      </c>
-      <c r="M48" s="10">
-        <v>2</v>
-      </c>
-      <c r="N48" s="5">
+      <c r="L48" s="4">
+        <v>1620</v>
+      </c>
+      <c r="M48" s="13">
+        <v>2</v>
+      </c>
+      <c r="N48" s="4">
         <v>44</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>46</v>
       </c>
@@ -3466,9 +3486,9 @@
         <v>8</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="13">
+        <v>89</v>
+      </c>
+      <c r="F49" s="11">
         <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -3478,28 +3498,28 @@
         <v>100</v>
       </c>
       <c r="J49" s="6">
-        <v>29500</v>
+        <v>16000</v>
       </c>
       <c r="K49" s="5">
         <v>7</v>
       </c>
-      <c r="L49" s="6">
-        <v>3520</v>
-      </c>
-      <c r="M49" s="10">
-        <v>2</v>
-      </c>
-      <c r="N49" s="5">
+      <c r="L49" s="4">
+        <v>1900</v>
+      </c>
+      <c r="M49" s="13">
+        <v>2</v>
+      </c>
+      <c r="N49" s="4">
         <v>45</v>
       </c>
       <c r="P49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q49" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>47</v>
       </c>
@@ -3510,9 +3530,9 @@
         <v>8</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" s="13">
+        <v>89</v>
+      </c>
+      <c r="F50" s="11">
         <v>20</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -3522,28 +3542,28 @@
         <v>105</v>
       </c>
       <c r="J50" s="6">
-        <v>43700</v>
+        <v>17700</v>
       </c>
       <c r="K50" s="5">
         <v>7</v>
       </c>
-      <c r="L50" s="6">
-        <v>4090</v>
-      </c>
-      <c r="M50" s="10">
-        <v>2</v>
-      </c>
-      <c r="N50" s="5">
+      <c r="L50" s="4">
+        <v>2210</v>
+      </c>
+      <c r="M50" s="13">
+        <v>2</v>
+      </c>
+      <c r="N50" s="4">
         <v>46</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>48</v>
       </c>
@@ -3554,9 +3574,9 @@
         <v>8</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51" s="13">
+        <v>89</v>
+      </c>
+      <c r="F51" s="11">
         <v>21</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -3566,28 +3586,28 @@
         <v>110</v>
       </c>
       <c r="J51" s="6">
-        <v>48100</v>
+        <v>19500</v>
       </c>
       <c r="K51" s="5">
         <v>7</v>
       </c>
-      <c r="L51" s="6">
-        <v>4730</v>
-      </c>
-      <c r="M51" s="10">
-        <v>2</v>
-      </c>
-      <c r="N51" s="5">
+      <c r="L51" s="4">
+        <v>2560</v>
+      </c>
+      <c r="M51" s="13">
+        <v>2</v>
+      </c>
+      <c r="N51" s="4">
         <v>47</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>49</v>
       </c>
@@ -3598,9 +3618,9 @@
         <v>8</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="13">
+        <v>89</v>
+      </c>
+      <c r="F52" s="11">
         <v>22</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -3610,28 +3630,28 @@
         <v>115</v>
       </c>
       <c r="J52" s="6">
-        <v>52800</v>
+        <v>21400</v>
       </c>
       <c r="K52" s="5">
         <v>7</v>
       </c>
-      <c r="L52" s="6">
-        <v>5430</v>
-      </c>
-      <c r="M52" s="10">
-        <v>2</v>
-      </c>
-      <c r="N52" s="5">
+      <c r="L52" s="4">
+        <v>2940</v>
+      </c>
+      <c r="M52" s="13">
+        <v>2</v>
+      </c>
+      <c r="N52" s="4">
         <v>48</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>50</v>
       </c>
@@ -3642,9 +3662,9 @@
         <v>8</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" s="13">
+        <v>89</v>
+      </c>
+      <c r="F53" s="11">
         <v>23</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -3654,28 +3674,28 @@
         <v>120</v>
       </c>
       <c r="J53" s="6">
-        <v>57800</v>
+        <v>23400</v>
       </c>
       <c r="K53" s="5">
         <v>7</v>
       </c>
-      <c r="L53" s="6">
-        <v>6190</v>
-      </c>
-      <c r="M53" s="10">
-        <v>2</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="L53" s="4">
+        <v>3350</v>
+      </c>
+      <c r="M53" s="13">
+        <v>2</v>
+      </c>
+      <c r="N53" s="4">
         <v>49</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>51</v>
       </c>
@@ -3686,9 +3706,9 @@
         <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" s="13">
+        <v>89</v>
+      </c>
+      <c r="F54" s="11">
         <v>24</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -3698,28 +3718,28 @@
         <v>125</v>
       </c>
       <c r="J54" s="6">
-        <v>62900</v>
+        <v>25500</v>
       </c>
       <c r="K54" s="5">
         <v>7</v>
       </c>
-      <c r="L54" s="6">
-        <v>7020</v>
-      </c>
-      <c r="M54" s="10">
-        <v>2</v>
-      </c>
-      <c r="N54" s="5">
+      <c r="L54" s="4">
+        <v>3800</v>
+      </c>
+      <c r="M54" s="13">
+        <v>2</v>
+      </c>
+      <c r="N54" s="4">
         <v>50</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>52</v>
       </c>
@@ -3730,9 +3750,9 @@
         <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F55" s="13">
+        <v>89</v>
+      </c>
+      <c r="F55" s="11">
         <v>25</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -3742,28 +3762,28 @@
         <v>130</v>
       </c>
       <c r="J55" s="6">
-        <v>68200</v>
+        <v>27700</v>
       </c>
       <c r="K55" s="5">
         <v>7</v>
       </c>
-      <c r="L55" s="6">
-        <v>7920</v>
-      </c>
-      <c r="M55" s="10">
-        <v>2</v>
-      </c>
-      <c r="N55" s="5">
+      <c r="L55" s="4">
+        <v>4290</v>
+      </c>
+      <c r="M55" s="13">
+        <v>2</v>
+      </c>
+      <c r="N55" s="4">
         <v>51</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>53</v>
       </c>
@@ -3774,9 +3794,9 @@
         <v>8</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="13">
+        <v>89</v>
+      </c>
+      <c r="F56" s="11">
         <v>26</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -3786,28 +3806,28 @@
         <v>135</v>
       </c>
       <c r="J56" s="6">
-        <v>73800</v>
+        <v>40000</v>
       </c>
       <c r="K56" s="5">
         <v>7</v>
       </c>
-      <c r="L56" s="6">
-        <v>8900</v>
-      </c>
-      <c r="M56" s="10">
-        <v>2</v>
-      </c>
-      <c r="N56" s="5">
+      <c r="L56" s="4">
+        <v>4820</v>
+      </c>
+      <c r="M56" s="13">
+        <v>2</v>
+      </c>
+      <c r="N56" s="4">
         <v>52</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>54</v>
       </c>
@@ -3818,9 +3838,9 @@
         <v>8</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="13">
+        <v>89</v>
+      </c>
+      <c r="F57" s="11">
         <v>27</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -3830,28 +3850,28 @@
         <v>140</v>
       </c>
       <c r="J57" s="6">
-        <v>79600</v>
+        <v>43100</v>
       </c>
       <c r="K57" s="5">
         <v>7</v>
       </c>
-      <c r="L57" s="6">
-        <v>9950</v>
-      </c>
-      <c r="M57" s="10">
-        <v>2</v>
-      </c>
-      <c r="N57" s="5">
+      <c r="L57" s="4">
+        <v>5390</v>
+      </c>
+      <c r="M57" s="13">
+        <v>2</v>
+      </c>
+      <c r="N57" s="4">
         <v>53</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>55</v>
       </c>
@@ -3862,9 +3882,9 @@
         <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F58" s="13">
+        <v>89</v>
+      </c>
+      <c r="F58" s="11">
         <v>28</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -3874,28 +3894,28 @@
         <v>145</v>
       </c>
       <c r="J58" s="6">
-        <v>85600</v>
+        <v>46400</v>
       </c>
       <c r="K58" s="5">
         <v>7</v>
       </c>
-      <c r="L58" s="6">
-        <v>11090</v>
-      </c>
-      <c r="M58" s="10">
-        <v>2</v>
-      </c>
-      <c r="N58" s="5">
+      <c r="L58" s="4">
+        <v>6000</v>
+      </c>
+      <c r="M58" s="13">
+        <v>2</v>
+      </c>
+      <c r="N58" s="4">
         <v>54</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>56</v>
       </c>
@@ -3906,9 +3926,9 @@
         <v>8</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F59" s="13">
+        <v>89</v>
+      </c>
+      <c r="F59" s="11">
         <v>29</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -3918,28 +3938,28 @@
         <v>150</v>
       </c>
       <c r="J59" s="6">
-        <v>91800</v>
+        <v>49700</v>
       </c>
       <c r="K59" s="5">
         <v>7</v>
       </c>
-      <c r="L59" s="6">
-        <v>12300</v>
-      </c>
-      <c r="M59" s="10">
-        <v>2</v>
-      </c>
-      <c r="N59" s="5">
+      <c r="L59" s="4">
+        <v>6660</v>
+      </c>
+      <c r="M59" s="13">
+        <v>2</v>
+      </c>
+      <c r="N59" s="4">
         <v>55</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>57</v>
       </c>
@@ -3950,9 +3970,9 @@
         <v>8</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F60" s="13">
+        <v>89</v>
+      </c>
+      <c r="F60" s="11">
         <v>30</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -3962,28 +3982,28 @@
         <v>155</v>
       </c>
       <c r="J60" s="6">
-        <v>98300</v>
+        <v>53200</v>
       </c>
       <c r="K60" s="5">
         <v>7</v>
       </c>
-      <c r="L60" s="6">
-        <v>13600</v>
-      </c>
-      <c r="M60" s="10">
-        <v>2</v>
-      </c>
-      <c r="N60" s="5">
+      <c r="L60" s="4">
+        <v>7370</v>
+      </c>
+      <c r="M60" s="13">
+        <v>2</v>
+      </c>
+      <c r="N60" s="4">
         <v>56</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>58</v>
       </c>
@@ -3994,9 +4014,9 @@
         <v>8</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61" s="13">
+        <v>89</v>
+      </c>
+      <c r="F61" s="11">
         <v>31</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -4006,28 +4026,28 @@
         <v>160</v>
       </c>
       <c r="J61" s="6">
-        <v>105000</v>
+        <v>56800</v>
       </c>
       <c r="K61" s="5">
         <v>7</v>
       </c>
-      <c r="L61" s="6">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="10">
-        <v>2</v>
-      </c>
-      <c r="N61" s="5">
+      <c r="L61" s="4">
+        <v>8120</v>
+      </c>
+      <c r="M61" s="13">
+        <v>2</v>
+      </c>
+      <c r="N61" s="4">
         <v>57</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>59</v>
       </c>
@@ -4038,9 +4058,9 @@
         <v>8</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" s="13">
+        <v>89</v>
+      </c>
+      <c r="F62" s="11">
         <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -4050,28 +4070,28 @@
         <v>165</v>
       </c>
       <c r="J62" s="6">
-        <v>111800</v>
+        <v>60600</v>
       </c>
       <c r="K62" s="5">
         <v>7</v>
       </c>
-      <c r="L62" s="6">
-        <v>16480</v>
-      </c>
-      <c r="M62" s="10">
-        <v>2</v>
-      </c>
-      <c r="N62" s="5">
+      <c r="L62" s="4">
+        <v>8920</v>
+      </c>
+      <c r="M62" s="13">
+        <v>2</v>
+      </c>
+      <c r="N62" s="4">
         <v>58</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>60</v>
       </c>
@@ -4082,9 +4102,9 @@
         <v>8</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" s="13">
+        <v>89</v>
+      </c>
+      <c r="F63" s="11">
         <v>33</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -4094,28 +4114,28 @@
         <v>170</v>
       </c>
       <c r="J63" s="6">
-        <v>118900</v>
+        <v>64400</v>
       </c>
       <c r="K63" s="5">
         <v>7</v>
       </c>
-      <c r="L63" s="6">
-        <v>18060</v>
-      </c>
-      <c r="M63" s="10">
-        <v>2</v>
-      </c>
-      <c r="N63" s="5">
+      <c r="L63" s="4">
+        <v>9780</v>
+      </c>
+      <c r="M63" s="13">
+        <v>2</v>
+      </c>
+      <c r="N63" s="4">
         <v>59</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>61</v>
       </c>
@@ -4126,9 +4146,9 @@
         <v>8</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" s="13">
+        <v>89</v>
+      </c>
+      <c r="F64" s="11">
         <v>34</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -4138,28 +4158,28 @@
         <v>175</v>
       </c>
       <c r="J64" s="6">
-        <v>126300</v>
+        <v>68400</v>
       </c>
       <c r="K64" s="5">
         <v>7</v>
       </c>
-      <c r="L64" s="6">
-        <v>19730</v>
-      </c>
-      <c r="M64" s="10">
-        <v>2</v>
-      </c>
-      <c r="N64" s="5">
+      <c r="L64" s="4">
+        <v>10690</v>
+      </c>
+      <c r="M64" s="13">
+        <v>2</v>
+      </c>
+      <c r="N64" s="4">
         <v>60</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>62</v>
       </c>
@@ -4170,9 +4190,9 @@
         <v>8</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" s="13">
+        <v>89</v>
+      </c>
+      <c r="F65" s="11">
         <v>35</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -4182,28 +4202,28 @@
         <v>180</v>
       </c>
       <c r="J65" s="6">
-        <v>133800</v>
+        <v>72500</v>
       </c>
       <c r="K65" s="5">
         <v>7</v>
       </c>
-      <c r="L65" s="6">
-        <v>21510</v>
-      </c>
-      <c r="M65" s="10">
-        <v>2</v>
-      </c>
-      <c r="N65" s="5">
+      <c r="L65" s="4">
+        <v>11650</v>
+      </c>
+      <c r="M65" s="13">
+        <v>2</v>
+      </c>
+      <c r="N65" s="4">
         <v>61</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>63</v>
       </c>
@@ -4214,9 +4234,9 @@
         <v>8</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F66" s="13">
+        <v>89</v>
+      </c>
+      <c r="F66" s="11">
         <v>36</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -4226,28 +4246,28 @@
         <v>185</v>
       </c>
       <c r="J66" s="6">
-        <v>177000</v>
+        <v>76700</v>
       </c>
       <c r="K66" s="5">
         <v>7</v>
       </c>
-      <c r="L66" s="6">
-        <v>23390</v>
-      </c>
-      <c r="M66" s="10">
-        <v>2</v>
-      </c>
-      <c r="N66" s="5">
+      <c r="L66" s="4">
+        <v>12670</v>
+      </c>
+      <c r="M66" s="13">
+        <v>2</v>
+      </c>
+      <c r="N66" s="4">
         <v>62</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>64</v>
       </c>
@@ -4258,9 +4278,9 @@
         <v>8</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="13">
+        <v>89</v>
+      </c>
+      <c r="F67" s="11">
         <v>37</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -4270,28 +4290,28 @@
         <v>190</v>
       </c>
       <c r="J67" s="6">
-        <v>186900</v>
+        <v>81000</v>
       </c>
       <c r="K67" s="5">
         <v>7</v>
       </c>
-      <c r="L67" s="6">
-        <v>25370</v>
-      </c>
-      <c r="M67" s="10">
-        <v>2</v>
-      </c>
-      <c r="N67" s="5">
+      <c r="L67" s="4">
+        <v>13740</v>
+      </c>
+      <c r="M67" s="13">
+        <v>2</v>
+      </c>
+      <c r="N67" s="4">
         <v>63</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>65</v>
       </c>
@@ -4302,9 +4322,9 @@
         <v>8</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F68" s="13">
+        <v>89</v>
+      </c>
+      <c r="F68" s="11">
         <v>38</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -4314,28 +4334,28 @@
         <v>195</v>
       </c>
       <c r="J68" s="6">
-        <v>197200</v>
+        <v>85400</v>
       </c>
       <c r="K68" s="5">
         <v>7</v>
       </c>
-      <c r="L68" s="6">
-        <v>27470</v>
-      </c>
-      <c r="M68" s="10">
-        <v>2</v>
-      </c>
-      <c r="N68" s="5">
+      <c r="L68" s="4">
+        <v>14880</v>
+      </c>
+      <c r="M68" s="13">
+        <v>2</v>
+      </c>
+      <c r="N68" s="4">
         <v>64</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>66</v>
       </c>
@@ -4346,9 +4366,9 @@
         <v>8</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F69" s="13">
+        <v>89</v>
+      </c>
+      <c r="F69" s="11">
         <v>39</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -4358,28 +4378,28 @@
         <v>200</v>
       </c>
       <c r="J69" s="6">
-        <v>207700</v>
+        <v>90000</v>
       </c>
       <c r="K69" s="5">
         <v>7</v>
       </c>
-      <c r="L69" s="6">
-        <v>29670</v>
-      </c>
-      <c r="M69" s="10">
-        <v>2</v>
-      </c>
-      <c r="N69" s="5">
+      <c r="L69" s="4">
+        <v>16070</v>
+      </c>
+      <c r="M69" s="13">
+        <v>2</v>
+      </c>
+      <c r="N69" s="4">
         <v>65</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>67</v>
       </c>
@@ -4390,9 +4410,9 @@
         <v>8</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F70" s="13">
+        <v>89</v>
+      </c>
+      <c r="F70" s="11">
         <v>40</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -4402,28 +4422,28 @@
         <v>205</v>
       </c>
       <c r="J70" s="6">
-        <v>218500</v>
+        <v>94600</v>
       </c>
       <c r="K70" s="5">
         <v>7</v>
       </c>
-      <c r="L70" s="6">
-        <v>32780</v>
-      </c>
-      <c r="M70" s="10">
-        <v>2</v>
-      </c>
-      <c r="N70" s="5">
+      <c r="L70" s="4">
+        <v>17750</v>
+      </c>
+      <c r="M70" s="13">
+        <v>2</v>
+      </c>
+      <c r="N70" s="4">
         <v>66</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>68</v>
       </c>
@@ -4434,7 +4454,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -4445,27 +4465,29 @@
       <c r="H71" s="4">
         <v>1</v>
       </c>
-      <c r="J71" s="6">
-        <v>50</v>
-      </c>
-      <c r="K71" s="6"/>
+      <c r="J71" s="4">
+        <v>60</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="L71" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="M71" s="4">
-        <v>2</v>
-      </c>
-      <c r="N71" s="4">
+        <v>185</v>
+      </c>
+      <c r="M71" s="13">
+        <v>2</v>
+      </c>
+      <c r="N71" s="15">
         <v>1</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>69</v>
       </c>
@@ -4476,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F72" s="4">
         <v>2</v>
@@ -4487,27 +4509,29 @@
       <c r="H72" s="4">
         <v>2</v>
       </c>
-      <c r="J72" s="6">
-        <v>2500</v>
-      </c>
-      <c r="K72" s="6"/>
+      <c r="J72" s="4">
+        <v>600</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="L72" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M72" s="4">
-        <v>2</v>
-      </c>
-      <c r="N72" s="3">
+        <v>186</v>
+      </c>
+      <c r="M72" s="13">
+        <v>2</v>
+      </c>
+      <c r="N72" s="4">
         <v>68</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>70</v>
       </c>
@@ -4518,7 +4542,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F73" s="4">
         <v>3</v>
@@ -4529,27 +4553,29 @@
       <c r="H73" s="4">
         <v>3</v>
       </c>
-      <c r="J73" s="6">
-        <v>16350</v>
-      </c>
-      <c r="K73" s="6"/>
+      <c r="J73" s="4">
+        <v>1800</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="L73" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M73" s="4">
-        <v>2</v>
-      </c>
-      <c r="N73" s="3">
+        <v>187</v>
+      </c>
+      <c r="M73" s="13">
+        <v>2</v>
+      </c>
+      <c r="N73" s="4">
         <v>69</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>71</v>
       </c>
@@ -4560,7 +4586,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F74" s="4">
         <v>4</v>
@@ -4571,27 +4597,29 @@
       <c r="H74" s="4">
         <v>4</v>
       </c>
-      <c r="J74" s="6">
-        <v>70350</v>
-      </c>
-      <c r="K74" s="6"/>
+      <c r="J74" s="4">
+        <v>8100</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="L74" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M74" s="4">
-        <v>2</v>
-      </c>
-      <c r="N74" s="3">
+        <v>188</v>
+      </c>
+      <c r="M74" s="13">
+        <v>2</v>
+      </c>
+      <c r="N74" s="4">
         <v>70</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <v>72</v>
       </c>
@@ -4602,7 +4630,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F75" s="4">
         <v>5</v>
@@ -4613,43 +4641,45 @@
       <c r="H75" s="4">
         <v>5</v>
       </c>
-      <c r="J75" s="6">
-        <v>224000</v>
-      </c>
-      <c r="K75" s="6"/>
+      <c r="J75" s="4">
+        <v>19200</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="L75" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="M75" s="4">
-        <v>2</v>
-      </c>
-      <c r="N75" s="3">
+        <v>189</v>
+      </c>
+      <c r="M75" s="13">
+        <v>2</v>
+      </c>
+      <c r="N75" s="4">
         <v>71</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q75"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:T2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/建筑表.xlsx
+++ b/ExcelConfig/建筑表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="198">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,6 +713,21 @@
   <si>
     <t>4|9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jz_chouduanzhuang</t>
+  </si>
+  <si>
+    <t>jz_maitian</t>
+  </si>
+  <si>
+    <t>jz_tiejiangpu</t>
+  </si>
+  <si>
+    <t>jz_zhigesi</t>
+  </si>
+  <si>
+    <t>jz_yanwuting</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1210,10 @@
   <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1492,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1543,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -1597,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -1651,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
@@ -1699,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
@@ -2008,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -2053,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -2098,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -2143,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -2188,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -2233,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -2278,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -2323,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -2368,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
@@ -2413,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="F25" s="3">
         <v>5</v>
@@ -4454,7 +4469,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -4498,7 +4513,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="F72" s="4">
         <v>2</v>
@@ -4542,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="F73" s="4">
         <v>3</v>
@@ -4586,7 +4601,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="F74" s="4">
         <v>4</v>
@@ -4630,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="F75" s="4">
         <v>5</v>
